--- a/data/158/COJ/old/Indexes of Business Conditions.xlsx
+++ b/data/158/COJ/old/Indexes of Business Conditions.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\CI\０１／CI\０２／速報からの改訂\★R3(2021)★\令和3年7月改訂\g研究所ホームページ掲載宛送付ファイル\jp\stat\di\di\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\CI\０１／CI\０２／速報からの改訂\★R3(2021)★\令和3年10月改訂\g研究所ホームページ掲載宛送付ファイル\jp\stat\di\di\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="67">
   <si>
     <t>ＤＩ指数</t>
   </si>
@@ -706,7 +706,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P514"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:P517"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="3" ySplit="6" topLeftCell="D7" activePane="bottomRight" state="frozen"/>
@@ -3073,7 +3076,7 @@
         <v>1</v>
       </c>
       <c r="D67" s="4">
-        <v>76.8</v>
+        <v>76.7</v>
       </c>
       <c r="E67" s="4">
         <v>79.099999999999994</v>
@@ -3126,7 +3129,7 @@
         <v>78.8</v>
       </c>
       <c r="F68" s="4">
-        <v>80.5</v>
+        <v>80.400000000000006</v>
       </c>
       <c r="G68" s="4">
         <v>77.2</v>
@@ -3173,7 +3176,7 @@
         <v>78.7</v>
       </c>
       <c r="F69" s="4">
-        <v>81.099999999999994</v>
+        <v>81</v>
       </c>
       <c r="G69" s="4">
         <v>77.099999999999994</v>
@@ -3264,10 +3267,10 @@
         <v>77.5</v>
       </c>
       <c r="E71" s="4">
-        <v>79.599999999999994</v>
+        <v>79.5</v>
       </c>
       <c r="F71" s="4">
-        <v>81.8</v>
+        <v>81.7</v>
       </c>
       <c r="G71" s="4">
         <v>77.7</v>
@@ -3358,13 +3361,13 @@
         <v>76.7</v>
       </c>
       <c r="E73" s="4">
-        <v>79.900000000000006</v>
+        <v>79.8</v>
       </c>
       <c r="F73" s="4">
         <v>83.1</v>
       </c>
       <c r="G73" s="4">
-        <v>77</v>
+        <v>76.900000000000006</v>
       </c>
       <c r="H73" s="4">
         <v>79.8</v>
@@ -3449,13 +3452,13 @@
         <v>9</v>
       </c>
       <c r="D75" s="4">
-        <v>75.8</v>
+        <v>75.7</v>
       </c>
       <c r="E75" s="4">
         <v>79.3</v>
       </c>
       <c r="F75" s="4">
-        <v>83.1</v>
+        <v>83</v>
       </c>
       <c r="G75" s="4">
         <v>76</v>
@@ -3643,7 +3646,7 @@
         <v>78.7</v>
       </c>
       <c r="F79" s="4">
-        <v>83.1</v>
+        <v>83</v>
       </c>
       <c r="G79" s="4">
         <v>75.5</v>
@@ -3734,10 +3737,10 @@
         <v>74.5</v>
       </c>
       <c r="E81" s="4">
-        <v>78.2</v>
+        <v>78.099999999999994</v>
       </c>
       <c r="F81" s="4">
-        <v>83</v>
+        <v>82.9</v>
       </c>
       <c r="G81" s="4">
         <v>74.8</v>
@@ -3784,7 +3787,7 @@
         <v>78.5</v>
       </c>
       <c r="F82" s="4">
-        <v>81.599999999999994</v>
+        <v>81.5</v>
       </c>
       <c r="G82" s="4">
         <v>74.5</v>
@@ -3828,7 +3831,7 @@
         <v>73</v>
       </c>
       <c r="E83" s="4">
-        <v>78</v>
+        <v>77.900000000000006</v>
       </c>
       <c r="F83" s="4">
         <v>82.2</v>
@@ -3969,10 +3972,10 @@
         <v>73.3</v>
       </c>
       <c r="E86" s="4">
-        <v>77.099999999999994</v>
+        <v>77</v>
       </c>
       <c r="F86" s="4">
-        <v>81.7</v>
+        <v>81.599999999999994</v>
       </c>
       <c r="G86" s="4">
         <v>73.599999999999994</v>
@@ -4063,7 +4066,7 @@
         <v>72.8</v>
       </c>
       <c r="E88" s="4">
-        <v>77.900000000000006</v>
+        <v>77.8</v>
       </c>
       <c r="F88" s="4">
         <v>81.900000000000006</v>
@@ -4113,7 +4116,7 @@
         <v>77.2</v>
       </c>
       <c r="F89" s="4">
-        <v>81.400000000000006</v>
+        <v>81.3</v>
       </c>
       <c r="G89" s="4">
         <v>72.599999999999994</v>
@@ -4160,7 +4163,7 @@
         <v>78.099999999999994</v>
       </c>
       <c r="F90" s="4">
-        <v>81.400000000000006</v>
+        <v>81.3</v>
       </c>
       <c r="G90" s="4">
         <v>73.900000000000006</v>
@@ -4201,7 +4204,7 @@
         <v>1</v>
       </c>
       <c r="D91" s="4">
-        <v>74.900000000000006</v>
+        <v>74.8</v>
       </c>
       <c r="E91" s="4">
         <v>78.5</v>
@@ -4295,13 +4298,13 @@
         <v>3</v>
       </c>
       <c r="D93" s="4">
-        <v>77.400000000000006</v>
+        <v>77.3</v>
       </c>
       <c r="E93" s="4">
         <v>79.5</v>
       </c>
       <c r="F93" s="4">
-        <v>82.1</v>
+        <v>82</v>
       </c>
       <c r="G93" s="4">
         <v>77.400000000000006</v>
@@ -4348,7 +4351,7 @@
         <v>79.5</v>
       </c>
       <c r="F94" s="4">
-        <v>82.3</v>
+        <v>82.2</v>
       </c>
       <c r="G94" s="4">
         <v>78.3</v>
@@ -4392,7 +4395,7 @@
         <v>80.5</v>
       </c>
       <c r="E95" s="4">
-        <v>79.8</v>
+        <v>79.7</v>
       </c>
       <c r="F95" s="4">
         <v>81.7</v>
@@ -4486,10 +4489,10 @@
         <v>83.2</v>
       </c>
       <c r="E97" s="4">
-        <v>82.1</v>
+        <v>82</v>
       </c>
       <c r="F97" s="4">
-        <v>83.3</v>
+        <v>83.2</v>
       </c>
       <c r="G97" s="4">
         <v>82.8</v>
@@ -4533,7 +4536,7 @@
         <v>85.2</v>
       </c>
       <c r="E98" s="4">
-        <v>82.7</v>
+        <v>82.6</v>
       </c>
       <c r="F98" s="4">
         <v>84</v>
@@ -4815,7 +4818,7 @@
         <v>90</v>
       </c>
       <c r="E104" s="4">
-        <v>89.4</v>
+        <v>89.3</v>
       </c>
       <c r="F104" s="4">
         <v>87.4</v>
@@ -4909,7 +4912,7 @@
         <v>89.4</v>
       </c>
       <c r="E106" s="4">
-        <v>90.1</v>
+        <v>90</v>
       </c>
       <c r="F106" s="4">
         <v>88.6</v>
@@ -4953,7 +4956,7 @@
         <v>5</v>
       </c>
       <c r="D107" s="4">
-        <v>89.8</v>
+        <v>89.7</v>
       </c>
       <c r="E107" s="4">
         <v>89.7</v>
@@ -5003,7 +5006,7 @@
         <v>89.7</v>
       </c>
       <c r="E108" s="4">
-        <v>90.4</v>
+        <v>90.3</v>
       </c>
       <c r="F108" s="4">
         <v>89.8</v>
@@ -5100,7 +5103,7 @@
         <v>91.4</v>
       </c>
       <c r="F110" s="4">
-        <v>91.3</v>
+        <v>91.2</v>
       </c>
       <c r="G110" s="4">
         <v>90</v>
@@ -5147,7 +5150,7 @@
         <v>92</v>
       </c>
       <c r="F111" s="4">
-        <v>92.3</v>
+        <v>92.2</v>
       </c>
       <c r="G111" s="4">
         <v>90.2</v>
@@ -5188,7 +5191,7 @@
         <v>10</v>
       </c>
       <c r="D112" s="4">
-        <v>90</v>
+        <v>89.9</v>
       </c>
       <c r="E112" s="4">
         <v>92.3</v>
@@ -5238,10 +5241,10 @@
         <v>90.6</v>
       </c>
       <c r="E113" s="4">
-        <v>93.8</v>
+        <v>93.7</v>
       </c>
       <c r="F113" s="4">
-        <v>93.4</v>
+        <v>93.3</v>
       </c>
       <c r="G113" s="4">
         <v>91.7</v>
@@ -5473,10 +5476,10 @@
         <v>91.3</v>
       </c>
       <c r="E118" s="4">
-        <v>95.4</v>
+        <v>95.3</v>
       </c>
       <c r="F118" s="4">
-        <v>97</v>
+        <v>96.9</v>
       </c>
       <c r="G118" s="4">
         <v>92.4</v>
@@ -5570,7 +5573,7 @@
         <v>95.9</v>
       </c>
       <c r="F120" s="4">
-        <v>98.7</v>
+        <v>98.6</v>
       </c>
       <c r="G120" s="4">
         <v>92.1</v>
@@ -5664,7 +5667,7 @@
         <v>96.8</v>
       </c>
       <c r="F122" s="4">
-        <v>99</v>
+        <v>98.9</v>
       </c>
       <c r="G122" s="4">
         <v>92.4</v>
@@ -5708,10 +5711,10 @@
         <v>91.3</v>
       </c>
       <c r="E123" s="4">
-        <v>97.3</v>
+        <v>97.2</v>
       </c>
       <c r="F123" s="4">
-        <v>99.5</v>
+        <v>99.4</v>
       </c>
       <c r="G123" s="4">
         <v>92.5</v>
@@ -5752,13 +5755,13 @@
         <v>10</v>
       </c>
       <c r="D124" s="4">
-        <v>90.9</v>
+        <v>90.8</v>
       </c>
       <c r="E124" s="4">
         <v>96.8</v>
       </c>
       <c r="F124" s="4">
-        <v>99.6</v>
+        <v>99.5</v>
       </c>
       <c r="G124" s="4">
         <v>92</v>
@@ -5802,10 +5805,10 @@
         <v>91.6</v>
       </c>
       <c r="E125" s="4">
-        <v>97.5</v>
+        <v>97.4</v>
       </c>
       <c r="F125" s="4">
-        <v>100.7</v>
+        <v>100.6</v>
       </c>
       <c r="G125" s="4">
         <v>92.8</v>
@@ -5852,7 +5855,7 @@
         <v>97.9</v>
       </c>
       <c r="F126" s="4">
-        <v>101.1</v>
+        <v>101</v>
       </c>
       <c r="G126" s="4">
         <v>93.4</v>
@@ -5943,10 +5946,10 @@
         <v>92.1</v>
       </c>
       <c r="E128" s="4">
-        <v>98.2</v>
+        <v>98.1</v>
       </c>
       <c r="F128" s="4">
-        <v>101.9</v>
+        <v>101.8</v>
       </c>
       <c r="G128" s="4">
         <v>93</v>
@@ -5987,13 +5990,13 @@
         <v>3</v>
       </c>
       <c r="D129" s="4">
-        <v>91.4</v>
+        <v>91.3</v>
       </c>
       <c r="E129" s="4">
-        <v>98.1</v>
+        <v>98</v>
       </c>
       <c r="F129" s="4">
-        <v>102</v>
+        <v>101.9</v>
       </c>
       <c r="G129" s="4">
         <v>92.3</v>
@@ -6037,7 +6040,7 @@
         <v>92</v>
       </c>
       <c r="E130" s="4">
-        <v>98.7</v>
+        <v>98.6</v>
       </c>
       <c r="F130" s="4">
         <v>102</v>
@@ -6087,10 +6090,10 @@
         <v>100.1</v>
       </c>
       <c r="F131" s="4">
-        <v>102.1</v>
+        <v>102</v>
       </c>
       <c r="G131" s="4">
-        <v>95.1</v>
+        <v>95</v>
       </c>
       <c r="H131" s="4">
         <v>100.7</v>
@@ -6134,10 +6137,10 @@
         <v>100.8</v>
       </c>
       <c r="F132" s="4">
-        <v>102.1</v>
+        <v>102</v>
       </c>
       <c r="G132" s="4">
-        <v>94.4</v>
+        <v>94.3</v>
       </c>
       <c r="H132" s="4">
         <v>101.5</v>
@@ -6228,7 +6231,7 @@
         <v>100.9</v>
       </c>
       <c r="F134" s="4">
-        <v>102.3</v>
+        <v>102.2</v>
       </c>
       <c r="G134" s="4">
         <v>92.2</v>
@@ -6272,7 +6275,7 @@
         <v>89.3</v>
       </c>
       <c r="E135" s="4">
-        <v>100.6</v>
+        <v>100.5</v>
       </c>
       <c r="F135" s="4">
         <v>102.4</v>
@@ -6319,10 +6322,10 @@
         <v>89.7</v>
       </c>
       <c r="E136" s="4">
-        <v>102</v>
+        <v>101.9</v>
       </c>
       <c r="F136" s="4">
-        <v>103</v>
+        <v>102.9</v>
       </c>
       <c r="G136" s="4">
         <v>91.4</v>
@@ -6369,7 +6372,7 @@
         <v>101.3</v>
       </c>
       <c r="F137" s="4">
-        <v>103.1</v>
+        <v>103</v>
       </c>
       <c r="G137" s="4">
         <v>90.1</v>
@@ -6413,10 +6416,10 @@
         <v>89.1</v>
       </c>
       <c r="E138" s="4">
-        <v>101.2</v>
+        <v>101.1</v>
       </c>
       <c r="F138" s="4">
-        <v>104.1</v>
+        <v>104</v>
       </c>
       <c r="G138" s="4">
         <v>89.6</v>
@@ -6507,10 +6510,10 @@
         <v>87.2</v>
       </c>
       <c r="E140" s="4">
-        <v>100.7</v>
+        <v>100.6</v>
       </c>
       <c r="F140" s="4">
-        <v>104</v>
+        <v>103.9</v>
       </c>
       <c r="G140" s="4">
         <v>86.8</v>
@@ -6601,10 +6604,10 @@
         <v>85.7</v>
       </c>
       <c r="E142" s="4">
-        <v>99</v>
+        <v>98.9</v>
       </c>
       <c r="F142" s="4">
-        <v>104.5</v>
+        <v>104.4</v>
       </c>
       <c r="G142" s="4">
         <v>85</v>
@@ -6698,7 +6701,7 @@
         <v>98.3</v>
       </c>
       <c r="F144" s="4">
-        <v>105.5</v>
+        <v>105.4</v>
       </c>
       <c r="G144" s="4">
         <v>83.2</v>
@@ -6792,7 +6795,7 @@
         <v>98.2</v>
       </c>
       <c r="F146" s="4">
-        <v>104.1</v>
+        <v>104</v>
       </c>
       <c r="G146" s="4">
         <v>82</v>
@@ -6880,7 +6883,7 @@
         <v>10</v>
       </c>
       <c r="D148" s="4">
-        <v>81.599999999999994</v>
+        <v>81.5</v>
       </c>
       <c r="E148" s="4">
         <v>96.6</v>
@@ -6930,7 +6933,7 @@
         <v>80.5</v>
       </c>
       <c r="E149" s="4">
-        <v>96.9</v>
+        <v>96.8</v>
       </c>
       <c r="F149" s="4">
         <v>103.8</v>
@@ -7071,7 +7074,7 @@
         <v>78.400000000000006</v>
       </c>
       <c r="E152" s="4">
-        <v>93.8</v>
+        <v>93.7</v>
       </c>
       <c r="F152" s="4">
         <v>102.3</v>
@@ -7168,13 +7171,13 @@
         <v>90.6</v>
       </c>
       <c r="F154" s="4">
-        <v>100.8</v>
+        <v>100.7</v>
       </c>
       <c r="G154" s="4">
         <v>76.099999999999994</v>
       </c>
       <c r="H154" s="4">
-        <v>91.2</v>
+        <v>91.1</v>
       </c>
       <c r="I154" s="4">
         <v>102.1</v>
@@ -7356,7 +7359,7 @@
         <v>86.4</v>
       </c>
       <c r="F158" s="4">
-        <v>98.6</v>
+        <v>98.5</v>
       </c>
       <c r="G158" s="4">
         <v>74.599999999999994</v>
@@ -7544,7 +7547,7 @@
         <v>83.2</v>
       </c>
       <c r="F162" s="4">
-        <v>95.5</v>
+        <v>95.4</v>
       </c>
       <c r="G162" s="4">
         <v>74.3</v>
@@ -7588,10 +7591,10 @@
         <v>74.2</v>
       </c>
       <c r="E163" s="4">
-        <v>84.1</v>
+        <v>84</v>
       </c>
       <c r="F163" s="4">
-        <v>95.4</v>
+        <v>95.3</v>
       </c>
       <c r="G163" s="4">
         <v>74.3</v>
@@ -7726,7 +7729,7 @@
         <v>4</v>
       </c>
       <c r="D166" s="4">
-        <v>76.099999999999994</v>
+        <v>76</v>
       </c>
       <c r="E166" s="4">
         <v>83.4</v>
@@ -7773,7 +7776,7 @@
         <v>5</v>
       </c>
       <c r="D167" s="4">
-        <v>77.099999999999994</v>
+        <v>77</v>
       </c>
       <c r="E167" s="4">
         <v>82.5</v>
@@ -7823,10 +7826,10 @@
         <v>77.3</v>
       </c>
       <c r="E168" s="4">
-        <v>81.400000000000006</v>
+        <v>81.3</v>
       </c>
       <c r="F168" s="4">
-        <v>91.3</v>
+        <v>91.2</v>
       </c>
       <c r="G168" s="4">
         <v>77.599999999999994</v>
@@ -7870,7 +7873,7 @@
         <v>77.599999999999994</v>
       </c>
       <c r="E169" s="4">
-        <v>81.5</v>
+        <v>81.400000000000006</v>
       </c>
       <c r="F169" s="4">
         <v>91.2</v>
@@ -7917,7 +7920,7 @@
         <v>77.2</v>
       </c>
       <c r="E170" s="4">
-        <v>81.099999999999994</v>
+        <v>81</v>
       </c>
       <c r="F170" s="4">
         <v>90.7</v>
@@ -7967,7 +7970,7 @@
         <v>81.099999999999994</v>
       </c>
       <c r="F171" s="4">
-        <v>89.9</v>
+        <v>89.8</v>
       </c>
       <c r="G171" s="4">
         <v>77.599999999999994</v>
@@ -8014,7 +8017,7 @@
         <v>79.8</v>
       </c>
       <c r="F172" s="4">
-        <v>89.6</v>
+        <v>89.5</v>
       </c>
       <c r="G172" s="4">
         <v>76.900000000000006</v>
@@ -8152,7 +8155,7 @@
         <v>76.8</v>
       </c>
       <c r="E175" s="4">
-        <v>79.8</v>
+        <v>79.7</v>
       </c>
       <c r="F175" s="4">
         <v>88.4</v>
@@ -8202,7 +8205,7 @@
         <v>79.5</v>
       </c>
       <c r="F176" s="4">
-        <v>87.6</v>
+        <v>87.5</v>
       </c>
       <c r="G176" s="4">
         <v>78</v>
@@ -8249,7 +8252,7 @@
         <v>80.599999999999994</v>
       </c>
       <c r="F177" s="4">
-        <v>87.4</v>
+        <v>87.3</v>
       </c>
       <c r="G177" s="4">
         <v>80.400000000000006</v>
@@ -8337,13 +8340,13 @@
         <v>5</v>
       </c>
       <c r="D179" s="4">
-        <v>81.5</v>
+        <v>81.400000000000006</v>
       </c>
       <c r="E179" s="4">
         <v>80.8</v>
       </c>
       <c r="F179" s="4">
-        <v>86.4</v>
+        <v>86.3</v>
       </c>
       <c r="G179" s="4">
         <v>81.7</v>
@@ -8384,7 +8387,7 @@
         <v>6</v>
       </c>
       <c r="D180" s="4">
-        <v>82.9</v>
+        <v>82.8</v>
       </c>
       <c r="E180" s="4">
         <v>82</v>
@@ -8431,10 +8434,10 @@
         <v>7</v>
       </c>
       <c r="D181" s="4">
-        <v>83.6</v>
+        <v>83.5</v>
       </c>
       <c r="E181" s="4">
-        <v>82.7</v>
+        <v>82.6</v>
       </c>
       <c r="F181" s="4">
         <v>86.4</v>
@@ -8622,7 +8625,7 @@
         <v>86.3</v>
       </c>
       <c r="E185" s="4">
-        <v>84.5</v>
+        <v>84.4</v>
       </c>
       <c r="F185" s="4">
         <v>86.7</v>
@@ -8763,7 +8766,7 @@
         <v>87.4</v>
       </c>
       <c r="E188" s="4">
-        <v>84.8</v>
+        <v>84.7</v>
       </c>
       <c r="F188" s="4">
         <v>87</v>
@@ -8854,7 +8857,7 @@
         <v>4</v>
       </c>
       <c r="D190" s="4">
-        <v>85.5</v>
+        <v>85.4</v>
       </c>
       <c r="E190" s="4">
         <v>85.5</v>
@@ -8904,7 +8907,7 @@
         <v>84.9</v>
       </c>
       <c r="E191" s="4">
-        <v>85</v>
+        <v>84.9</v>
       </c>
       <c r="F191" s="4">
         <v>87.1</v>
@@ -8948,7 +8951,7 @@
         <v>6</v>
       </c>
       <c r="D192" s="4">
-        <v>84.4</v>
+        <v>84.3</v>
       </c>
       <c r="E192" s="4">
         <v>85.1</v>
@@ -8995,10 +8998,10 @@
         <v>7</v>
       </c>
       <c r="D193" s="4">
+        <v>83.5</v>
+      </c>
+      <c r="E193" s="4">
         <v>83.6</v>
-      </c>
-      <c r="E193" s="4">
-        <v>83.7</v>
       </c>
       <c r="F193" s="4">
         <v>87.1</v>
@@ -9277,7 +9280,7 @@
         <v>1</v>
       </c>
       <c r="D199" s="4">
-        <v>89</v>
+        <v>88.9</v>
       </c>
       <c r="E199" s="4">
         <v>86.1</v>
@@ -9371,10 +9374,10 @@
         <v>3</v>
       </c>
       <c r="D201" s="4">
-        <v>90.2</v>
+        <v>90.1</v>
       </c>
       <c r="E201" s="4">
-        <v>87</v>
+        <v>86.9</v>
       </c>
       <c r="F201" s="4">
         <v>89.9</v>
@@ -9759,7 +9762,7 @@
         <v>97.1</v>
       </c>
       <c r="H209" s="4">
-        <v>93.3</v>
+        <v>93.2</v>
       </c>
       <c r="I209" s="4">
         <v>93.7</v>
@@ -9841,10 +9844,10 @@
         <v>1</v>
       </c>
       <c r="D211" s="4">
-        <v>94.4</v>
+        <v>94.3</v>
       </c>
       <c r="E211" s="4">
-        <v>93.7</v>
+        <v>93.6</v>
       </c>
       <c r="F211" s="4">
         <v>93.6</v>
@@ -9988,7 +9991,7 @@
         <v>92.9</v>
       </c>
       <c r="F214" s="4">
-        <v>95.6</v>
+        <v>95.5</v>
       </c>
       <c r="G214" s="4">
         <v>93.8</v>
@@ -10126,7 +10129,7 @@
         <v>92.4</v>
       </c>
       <c r="E217" s="4">
-        <v>94.2</v>
+        <v>94.1</v>
       </c>
       <c r="F217" s="4">
         <v>96.9</v>
@@ -10135,7 +10138,7 @@
         <v>94</v>
       </c>
       <c r="H217" s="4">
-        <v>95.3</v>
+        <v>95.2</v>
       </c>
       <c r="I217" s="4">
         <v>97.9</v>
@@ -10220,7 +10223,7 @@
         <v>91.2</v>
       </c>
       <c r="E219" s="4">
-        <v>93.1</v>
+        <v>93</v>
       </c>
       <c r="F219" s="4">
         <v>97.6</v>
@@ -10264,7 +10267,7 @@
         <v>10</v>
       </c>
       <c r="D220" s="4">
-        <v>89.7</v>
+        <v>89.6</v>
       </c>
       <c r="E220" s="4">
         <v>92.9</v>
@@ -10311,7 +10314,7 @@
         <v>11</v>
       </c>
       <c r="D221" s="4">
-        <v>87.1</v>
+        <v>87</v>
       </c>
       <c r="E221" s="4">
         <v>90.9</v>
@@ -10370,7 +10373,7 @@
         <v>87.4</v>
       </c>
       <c r="H222" s="4">
-        <v>91.8</v>
+        <v>91.7</v>
       </c>
       <c r="I222" s="4">
         <v>98.2</v>
@@ -10458,7 +10461,7 @@
         <v>88.5</v>
       </c>
       <c r="F224" s="4">
-        <v>95.3</v>
+        <v>95.2</v>
       </c>
       <c r="G224" s="4">
         <v>86.2</v>
@@ -10505,7 +10508,7 @@
         <v>86.1</v>
       </c>
       <c r="F225" s="4">
-        <v>94</v>
+        <v>93.9</v>
       </c>
       <c r="G225" s="4">
         <v>85</v>
@@ -10643,7 +10646,7 @@
         <v>81.599999999999994</v>
       </c>
       <c r="E228" s="4">
-        <v>85.1</v>
+        <v>85</v>
       </c>
       <c r="F228" s="4">
         <v>92.4</v>
@@ -10693,7 +10696,7 @@
         <v>85.4</v>
       </c>
       <c r="F229" s="4">
-        <v>91.9</v>
+        <v>91.8</v>
       </c>
       <c r="G229" s="4">
         <v>82.9</v>
@@ -10784,7 +10787,7 @@
         <v>81.3</v>
       </c>
       <c r="E231" s="4">
-        <v>85.1</v>
+        <v>85</v>
       </c>
       <c r="F231" s="4">
         <v>91</v>
@@ -10831,7 +10834,7 @@
         <v>79.8</v>
       </c>
       <c r="E232" s="4">
-        <v>84.4</v>
+        <v>84.3</v>
       </c>
       <c r="F232" s="4">
         <v>90.6</v>
@@ -10881,7 +10884,7 @@
         <v>84.3</v>
       </c>
       <c r="F233" s="4">
-        <v>90</v>
+        <v>89.9</v>
       </c>
       <c r="G233" s="4">
         <v>82.9</v>
@@ -10969,7 +10972,7 @@
         <v>1</v>
       </c>
       <c r="D235" s="4">
-        <v>81</v>
+        <v>80.900000000000006</v>
       </c>
       <c r="E235" s="4">
         <v>84.7</v>
@@ -10981,7 +10984,7 @@
         <v>82</v>
       </c>
       <c r="H235" s="4">
-        <v>86.4</v>
+        <v>86.3</v>
       </c>
       <c r="I235" s="4">
         <v>89.8</v>
@@ -11486,7 +11489,7 @@
         <v>12</v>
       </c>
       <c r="D246" s="4">
-        <v>90.6</v>
+        <v>90.5</v>
       </c>
       <c r="E246" s="4">
         <v>89.6</v>
@@ -11539,7 +11542,7 @@
         <v>90.1</v>
       </c>
       <c r="F247" s="4">
-        <v>88.3</v>
+        <v>88.2</v>
       </c>
       <c r="G247" s="4">
         <v>92.7</v>
@@ -11677,10 +11680,10 @@
         <v>92.6</v>
       </c>
       <c r="E250" s="4">
-        <v>92.7</v>
+        <v>92.6</v>
       </c>
       <c r="F250" s="4">
-        <v>89.3</v>
+        <v>89.2</v>
       </c>
       <c r="G250" s="4">
         <v>93.7</v>
@@ -11768,7 +11771,7 @@
         <v>6</v>
       </c>
       <c r="D252" s="4">
-        <v>93.4</v>
+        <v>93.3</v>
       </c>
       <c r="E252" s="4">
         <v>94</v>
@@ -11818,7 +11821,7 @@
         <v>93.5</v>
       </c>
       <c r="E253" s="4">
-        <v>93.5</v>
+        <v>93.4</v>
       </c>
       <c r="F253" s="4">
         <v>89.2</v>
@@ -11915,7 +11918,7 @@
         <v>94</v>
       </c>
       <c r="F255" s="4">
-        <v>89.1</v>
+        <v>89</v>
       </c>
       <c r="G255" s="4">
         <v>95.7</v>
@@ -12097,7 +12100,7 @@
         <v>1</v>
       </c>
       <c r="D259" s="4">
-        <v>91.8</v>
+        <v>91.7</v>
       </c>
       <c r="E259" s="4">
         <v>94</v>
@@ -12144,13 +12147,13 @@
         <v>2</v>
       </c>
       <c r="D260" s="4">
-        <v>91.3</v>
+        <v>91.2</v>
       </c>
       <c r="E260" s="4">
-        <v>93.8</v>
+        <v>93.7</v>
       </c>
       <c r="F260" s="4">
-        <v>90.9</v>
+        <v>90.8</v>
       </c>
       <c r="G260" s="4">
         <v>92.6</v>
@@ -12194,10 +12197,10 @@
         <v>89.9</v>
       </c>
       <c r="E261" s="4">
-        <v>92.6</v>
+        <v>92.5</v>
       </c>
       <c r="F261" s="4">
-        <v>90.4</v>
+        <v>90.3</v>
       </c>
       <c r="G261" s="4">
         <v>91.2</v>
@@ -12238,13 +12241,13 @@
         <v>4</v>
       </c>
       <c r="D262" s="4">
-        <v>88.9</v>
+        <v>88.8</v>
       </c>
       <c r="E262" s="4">
         <v>91.5</v>
       </c>
       <c r="F262" s="4">
-        <v>90.2</v>
+        <v>90.1</v>
       </c>
       <c r="G262" s="4">
         <v>90</v>
@@ -12288,10 +12291,10 @@
         <v>89</v>
       </c>
       <c r="E263" s="4">
-        <v>90.4</v>
+        <v>90.3</v>
       </c>
       <c r="F263" s="4">
-        <v>90.3</v>
+        <v>90.2</v>
       </c>
       <c r="G263" s="4">
         <v>90.2</v>
@@ -12332,7 +12335,7 @@
         <v>6</v>
       </c>
       <c r="D264" s="4">
-        <v>87.9</v>
+        <v>87.8</v>
       </c>
       <c r="E264" s="4">
         <v>89.9</v>
@@ -12379,13 +12382,13 @@
         <v>7</v>
       </c>
       <c r="D265" s="4">
-        <v>86.5</v>
+        <v>86.4</v>
       </c>
       <c r="E265" s="4">
         <v>88.6</v>
       </c>
       <c r="F265" s="4">
-        <v>89.8</v>
+        <v>89.7</v>
       </c>
       <c r="G265" s="4">
         <v>87.7</v>
@@ -12432,7 +12435,7 @@
         <v>87.3</v>
       </c>
       <c r="F266" s="4">
-        <v>89.9</v>
+        <v>89.8</v>
       </c>
       <c r="G266" s="4">
         <v>86.8</v>
@@ -12479,7 +12482,7 @@
         <v>85.9</v>
       </c>
       <c r="F267" s="4">
-        <v>89.5</v>
+        <v>89.4</v>
       </c>
       <c r="G267" s="4">
         <v>84.5</v>
@@ -12567,13 +12570,13 @@
         <v>11</v>
       </c>
       <c r="D269" s="4">
-        <v>83</v>
+        <v>82.9</v>
       </c>
       <c r="E269" s="4">
-        <v>84.7</v>
+        <v>84.6</v>
       </c>
       <c r="F269" s="4">
-        <v>88.8</v>
+        <v>88.7</v>
       </c>
       <c r="G269" s="4">
         <v>84.2</v>
@@ -12714,7 +12717,7 @@
         <v>85.2</v>
       </c>
       <c r="F272" s="4">
-        <v>87.8</v>
+        <v>87.7</v>
       </c>
       <c r="G272" s="4">
         <v>86.4</v>
@@ -12805,7 +12808,7 @@
         <v>88.4</v>
       </c>
       <c r="E274" s="4">
-        <v>86.5</v>
+        <v>86.4</v>
       </c>
       <c r="F274" s="4">
         <v>87.4</v>
@@ -12849,10 +12852,10 @@
         <v>5</v>
       </c>
       <c r="D275" s="4">
-        <v>90.6</v>
+        <v>90.5</v>
       </c>
       <c r="E275" s="4">
-        <v>88.9</v>
+        <v>88.8</v>
       </c>
       <c r="F275" s="4">
         <v>86.8</v>
@@ -12949,7 +12952,7 @@
         <v>88.7</v>
       </c>
       <c r="F277" s="4">
-        <v>87.1</v>
+        <v>87</v>
       </c>
       <c r="G277" s="4">
         <v>92.6</v>
@@ -13084,7 +13087,7 @@
         <v>10</v>
       </c>
       <c r="D280" s="4">
-        <v>90.5</v>
+        <v>90.4</v>
       </c>
       <c r="E280" s="4">
         <v>90.1</v>
@@ -13225,7 +13228,7 @@
         <v>1</v>
       </c>
       <c r="D283" s="4">
-        <v>90.1</v>
+        <v>90</v>
       </c>
       <c r="E283" s="4">
         <v>90.5</v>
@@ -13278,7 +13281,7 @@
         <v>91.2</v>
       </c>
       <c r="F284" s="4">
-        <v>89.2</v>
+        <v>89.1</v>
       </c>
       <c r="G284" s="4">
         <v>92.6</v>
@@ -13322,7 +13325,7 @@
         <v>90.1</v>
       </c>
       <c r="E285" s="4">
-        <v>91.1</v>
+        <v>91</v>
       </c>
       <c r="F285" s="4">
         <v>89.7</v>
@@ -13413,13 +13416,13 @@
         <v>5</v>
       </c>
       <c r="D287" s="4">
-        <v>91.1</v>
+        <v>91</v>
       </c>
       <c r="E287" s="4">
-        <v>91.4</v>
+        <v>91.3</v>
       </c>
       <c r="F287" s="4">
-        <v>90.4</v>
+        <v>90.3</v>
       </c>
       <c r="G287" s="4">
         <v>93.4</v>
@@ -13466,7 +13469,7 @@
         <v>91.3</v>
       </c>
       <c r="F288" s="4">
-        <v>90.9</v>
+        <v>90.8</v>
       </c>
       <c r="G288" s="4">
         <v>94</v>
@@ -13513,7 +13516,7 @@
         <v>91.7</v>
       </c>
       <c r="F289" s="4">
-        <v>91.7</v>
+        <v>91.6</v>
       </c>
       <c r="G289" s="4">
         <v>95</v>
@@ -13748,7 +13751,7 @@
         <v>96.9</v>
       </c>
       <c r="F294" s="4">
-        <v>94.4</v>
+        <v>94.3</v>
       </c>
       <c r="G294" s="4">
         <v>98.7</v>
@@ -13789,7 +13792,7 @@
         <v>1</v>
       </c>
       <c r="D295" s="4">
-        <v>97.5</v>
+        <v>97.4</v>
       </c>
       <c r="E295" s="4">
         <v>98.2</v>
@@ -13980,7 +13983,7 @@
         <v>100.8</v>
       </c>
       <c r="E299" s="4">
-        <v>99</v>
+        <v>98.9</v>
       </c>
       <c r="F299" s="4">
         <v>98</v>
@@ -14024,10 +14027,10 @@
         <v>6</v>
       </c>
       <c r="D300" s="4">
-        <v>100.4</v>
+        <v>100.3</v>
       </c>
       <c r="E300" s="4">
-        <v>99.9</v>
+        <v>99.8</v>
       </c>
       <c r="F300" s="4">
         <v>97.8</v>
@@ -14124,7 +14127,7 @@
         <v>99.9</v>
       </c>
       <c r="F302" s="4">
-        <v>98.3</v>
+        <v>98.2</v>
       </c>
       <c r="G302" s="4">
         <v>104.6</v>
@@ -14168,7 +14171,7 @@
         <v>101.6</v>
       </c>
       <c r="E303" s="4">
-        <v>100.2</v>
+        <v>100.1</v>
       </c>
       <c r="F303" s="4">
         <v>99.2</v>
@@ -14218,7 +14221,7 @@
         <v>99.6</v>
       </c>
       <c r="F304" s="4">
-        <v>98.8</v>
+        <v>98.7</v>
       </c>
       <c r="G304" s="4">
         <v>105.1</v>
@@ -14259,13 +14262,13 @@
         <v>11</v>
       </c>
       <c r="D305" s="4">
-        <v>102.2</v>
+        <v>102.1</v>
       </c>
       <c r="E305" s="4">
-        <v>100.9</v>
+        <v>100.8</v>
       </c>
       <c r="F305" s="4">
-        <v>99.1</v>
+        <v>99</v>
       </c>
       <c r="G305" s="4">
         <v>105.2</v>
@@ -14306,7 +14309,7 @@
         <v>12</v>
       </c>
       <c r="D306" s="4">
-        <v>102.6</v>
+        <v>102.5</v>
       </c>
       <c r="E306" s="4">
         <v>99.9</v>
@@ -14324,7 +14327,7 @@
         <v>100.6</v>
       </c>
       <c r="J306" s="4">
-        <v>45.5</v>
+        <v>50</v>
       </c>
       <c r="K306" s="4">
         <v>20</v>
@@ -14333,7 +14336,7 @@
         <v>44.4</v>
       </c>
       <c r="M306" s="4">
-        <v>599.6</v>
+        <v>604.1</v>
       </c>
       <c r="N306" s="4">
         <v>1905</v>
@@ -14380,7 +14383,7 @@
         <v>72.2</v>
       </c>
       <c r="M307" s="4">
-        <v>604.1</v>
+        <v>608.6</v>
       </c>
       <c r="N307" s="4">
         <v>1935</v>
@@ -14406,7 +14409,7 @@
         <v>99.7</v>
       </c>
       <c r="F308" s="4">
-        <v>99</v>
+        <v>98.9</v>
       </c>
       <c r="G308" s="4">
         <v>104.3</v>
@@ -14427,7 +14430,7 @@
         <v>50</v>
       </c>
       <c r="M308" s="4">
-        <v>599.6</v>
+        <v>604.1</v>
       </c>
       <c r="N308" s="4">
         <v>1910</v>
@@ -14474,7 +14477,7 @@
         <v>55.6</v>
       </c>
       <c r="M309" s="4">
-        <v>599.6</v>
+        <v>604.1</v>
       </c>
       <c r="N309" s="4">
         <v>1950</v>
@@ -14494,7 +14497,7 @@
         <v>4</v>
       </c>
       <c r="D310" s="4">
-        <v>103.5</v>
+        <v>103.4</v>
       </c>
       <c r="E310" s="4">
         <v>101.9</v>
@@ -14521,7 +14524,7 @@
         <v>77.8</v>
       </c>
       <c r="M310" s="4">
-        <v>622.29999999999995</v>
+        <v>626.79999999999995</v>
       </c>
       <c r="N310" s="4">
         <v>1980</v>
@@ -14568,7 +14571,7 @@
         <v>66.7</v>
       </c>
       <c r="M311" s="4">
-        <v>626.79999999999995</v>
+        <v>631.29999999999995</v>
       </c>
       <c r="N311" s="4">
         <v>2000</v>
@@ -14615,7 +14618,7 @@
         <v>66.7</v>
       </c>
       <c r="M312" s="4">
-        <v>631.29999999999995</v>
+        <v>635.79999999999995</v>
       </c>
       <c r="N312" s="4">
         <v>2040</v>
@@ -14662,7 +14665,7 @@
         <v>38.9</v>
       </c>
       <c r="M313" s="4">
-        <v>626.79999999999995</v>
+        <v>631.29999999999995</v>
       </c>
       <c r="N313" s="4">
         <v>2010</v>
@@ -14709,7 +14712,7 @@
         <v>66.7</v>
       </c>
       <c r="M314" s="4">
-        <v>658.6</v>
+        <v>663.1</v>
       </c>
       <c r="N314" s="4">
         <v>2030</v>
@@ -14756,7 +14759,7 @@
         <v>72.2</v>
       </c>
       <c r="M315" s="4">
-        <v>672.2</v>
+        <v>676.7</v>
       </c>
       <c r="N315" s="4">
         <v>2055</v>
@@ -14803,7 +14806,7 @@
         <v>72.2</v>
       </c>
       <c r="M316" s="4">
-        <v>685.8</v>
+        <v>690.3</v>
       </c>
       <c r="N316" s="4">
         <v>2095</v>
@@ -14823,7 +14826,7 @@
         <v>11</v>
       </c>
       <c r="D317" s="4">
-        <v>106.5</v>
+        <v>106.4</v>
       </c>
       <c r="E317" s="4">
         <v>102.9</v>
@@ -14850,7 +14853,7 @@
         <v>55.6</v>
       </c>
       <c r="M317" s="4">
-        <v>708.5</v>
+        <v>713</v>
       </c>
       <c r="N317" s="4">
         <v>2115</v>
@@ -14873,7 +14876,7 @@
         <v>106.5</v>
       </c>
       <c r="E318" s="4">
-        <v>103.6</v>
+        <v>103.5</v>
       </c>
       <c r="F318" s="4">
         <v>101.6</v>
@@ -14897,7 +14900,7 @@
         <v>55.6</v>
       </c>
       <c r="M318" s="4">
-        <v>735.8</v>
+        <v>740.3</v>
       </c>
       <c r="N318" s="4">
         <v>2155</v>
@@ -14920,7 +14923,7 @@
         <v>106.8</v>
       </c>
       <c r="E319" s="4">
-        <v>103.9</v>
+        <v>103.8</v>
       </c>
       <c r="F319" s="4">
         <v>101.4</v>
@@ -14944,7 +14947,7 @@
         <v>66.7</v>
       </c>
       <c r="M319" s="4">
-        <v>740.3</v>
+        <v>744.8</v>
       </c>
       <c r="N319" s="4">
         <v>2205</v>
@@ -14967,7 +14970,7 @@
         <v>107.6</v>
       </c>
       <c r="E320" s="4">
-        <v>104.5</v>
+        <v>104.4</v>
       </c>
       <c r="F320" s="4">
         <v>102.7</v>
@@ -14991,7 +14994,7 @@
         <v>72.2</v>
       </c>
       <c r="M320" s="4">
-        <v>753.9</v>
+        <v>758.4</v>
       </c>
       <c r="N320" s="4">
         <v>2245</v>
@@ -15014,7 +15017,7 @@
         <v>105.9</v>
       </c>
       <c r="E321" s="4">
-        <v>104.8</v>
+        <v>104.7</v>
       </c>
       <c r="F321" s="4">
         <v>102.8</v>
@@ -15038,7 +15041,7 @@
         <v>77.8</v>
       </c>
       <c r="M321" s="4">
-        <v>767.5</v>
+        <v>772</v>
       </c>
       <c r="N321" s="4">
         <v>2265</v>
@@ -15061,7 +15064,7 @@
         <v>108.1</v>
       </c>
       <c r="E322" s="4">
-        <v>105.2</v>
+        <v>105.1</v>
       </c>
       <c r="F322" s="4">
         <v>103.6</v>
@@ -15085,7 +15088,7 @@
         <v>83.3</v>
       </c>
       <c r="M322" s="4">
-        <v>772</v>
+        <v>776.5</v>
       </c>
       <c r="N322" s="4">
         <v>2285</v>
@@ -15111,7 +15114,7 @@
         <v>105.4</v>
       </c>
       <c r="F323" s="4">
-        <v>104</v>
+        <v>103.9</v>
       </c>
       <c r="G323" s="4">
         <v>110.2</v>
@@ -15132,7 +15135,7 @@
         <v>72.2</v>
       </c>
       <c r="M323" s="4">
-        <v>776.5</v>
+        <v>781</v>
       </c>
       <c r="N323" s="4">
         <v>2295</v>
@@ -15179,7 +15182,7 @@
         <v>88.9</v>
       </c>
       <c r="M324" s="4">
-        <v>781</v>
+        <v>785.5</v>
       </c>
       <c r="N324" s="4">
         <v>2305</v>
@@ -15226,7 +15229,7 @@
         <v>66.7</v>
       </c>
       <c r="M325" s="4">
-        <v>767.4</v>
+        <v>771.9</v>
       </c>
       <c r="N325" s="4">
         <v>2325</v>
@@ -15246,7 +15249,7 @@
         <v>8</v>
       </c>
       <c r="D326" s="4">
-        <v>106.9</v>
+        <v>106.8</v>
       </c>
       <c r="E326" s="4">
         <v>106.2</v>
@@ -15273,7 +15276,7 @@
         <v>55.6</v>
       </c>
       <c r="M326" s="4">
-        <v>762.9</v>
+        <v>767.4</v>
       </c>
       <c r="N326" s="4">
         <v>2340</v>
@@ -15302,7 +15305,7 @@
         <v>105.1</v>
       </c>
       <c r="G327" s="4">
-        <v>108.2</v>
+        <v>108.1</v>
       </c>
       <c r="H327" s="4">
         <v>107.8</v>
@@ -15320,7 +15323,7 @@
         <v>61.1</v>
       </c>
       <c r="M327" s="4">
-        <v>767.4</v>
+        <v>771.9</v>
       </c>
       <c r="N327" s="4">
         <v>2365</v>
@@ -15367,7 +15370,7 @@
         <v>55.6</v>
       </c>
       <c r="M328" s="4">
-        <v>776.5</v>
+        <v>781</v>
       </c>
       <c r="N328" s="4">
         <v>2390</v>
@@ -15387,10 +15390,10 @@
         <v>11</v>
       </c>
       <c r="D329" s="4">
-        <v>106.8</v>
+        <v>106.7</v>
       </c>
       <c r="E329" s="4">
-        <v>106.4</v>
+        <v>106.3</v>
       </c>
       <c r="F329" s="4">
         <v>106.6</v>
@@ -15414,7 +15417,7 @@
         <v>77.8</v>
       </c>
       <c r="M329" s="4">
-        <v>781</v>
+        <v>785.5</v>
       </c>
       <c r="N329" s="4">
         <v>2390</v>
@@ -15434,13 +15437,13 @@
         <v>12</v>
       </c>
       <c r="D330" s="4">
-        <v>106.4</v>
+        <v>106.3</v>
       </c>
       <c r="E330" s="4">
         <v>106.3</v>
       </c>
       <c r="F330" s="4">
-        <v>107</v>
+        <v>106.9</v>
       </c>
       <c r="G330" s="4">
         <v>108.9</v>
@@ -15461,7 +15464,7 @@
         <v>77.8</v>
       </c>
       <c r="M330" s="4">
-        <v>785.5</v>
+        <v>790</v>
       </c>
       <c r="N330" s="4">
         <v>2400</v>
@@ -15508,7 +15511,7 @@
         <v>72.2</v>
       </c>
       <c r="M331" s="4">
-        <v>817.3</v>
+        <v>821.8</v>
       </c>
       <c r="N331" s="4">
         <v>2400</v>
@@ -15531,7 +15534,7 @@
         <v>107.1</v>
       </c>
       <c r="E332" s="4">
-        <v>106.3</v>
+        <v>106.2</v>
       </c>
       <c r="F332" s="4">
         <v>106.8</v>
@@ -15555,7 +15558,7 @@
         <v>27.8</v>
       </c>
       <c r="M332" s="4">
-        <v>817.3</v>
+        <v>821.8</v>
       </c>
       <c r="N332" s="4">
         <v>2400</v>
@@ -15602,7 +15605,7 @@
         <v>44.4</v>
       </c>
       <c r="M333" s="4">
-        <v>812.8</v>
+        <v>817.3</v>
       </c>
       <c r="N333" s="4">
         <v>2380</v>
@@ -15649,7 +15652,7 @@
         <v>44.4</v>
       </c>
       <c r="M334" s="4">
-        <v>808.3</v>
+        <v>812.8</v>
       </c>
       <c r="N334" s="4">
         <v>2380</v>
@@ -15669,7 +15672,7 @@
         <v>5</v>
       </c>
       <c r="D335" s="4">
-        <v>106.3</v>
+        <v>106.2</v>
       </c>
       <c r="E335" s="4">
         <v>107.3</v>
@@ -15696,7 +15699,7 @@
         <v>77.8</v>
       </c>
       <c r="M335" s="4">
-        <v>794.7</v>
+        <v>799.2</v>
       </c>
       <c r="N335" s="4">
         <v>2410</v>
@@ -15719,7 +15722,7 @@
         <v>105.6</v>
       </c>
       <c r="E336" s="4">
-        <v>106.9</v>
+        <v>106.8</v>
       </c>
       <c r="F336" s="4">
         <v>108.1</v>
@@ -15743,7 +15746,7 @@
         <v>77.8</v>
       </c>
       <c r="M336" s="4">
-        <v>790.2</v>
+        <v>794.7</v>
       </c>
       <c r="N336" s="4">
         <v>2445</v>
@@ -15790,7 +15793,7 @@
         <v>77.8</v>
       </c>
       <c r="M337" s="4">
-        <v>785.7</v>
+        <v>790.2</v>
       </c>
       <c r="N337" s="4">
         <v>2445</v>
@@ -15837,7 +15840,7 @@
         <v>72.2</v>
       </c>
       <c r="M338" s="4">
-        <v>758.4</v>
+        <v>762.9</v>
       </c>
       <c r="N338" s="4">
         <v>2445</v>
@@ -15857,7 +15860,7 @@
         <v>9</v>
       </c>
       <c r="D339" s="4">
-        <v>102.4</v>
+        <v>102.3</v>
       </c>
       <c r="E339" s="4">
         <v>105.7</v>
@@ -15884,7 +15887,7 @@
         <v>50</v>
       </c>
       <c r="M339" s="4">
-        <v>726.6</v>
+        <v>731.1</v>
       </c>
       <c r="N339" s="4">
         <v>2445</v>
@@ -15931,7 +15934,7 @@
         <v>66.7</v>
       </c>
       <c r="M340" s="4">
-        <v>703.9</v>
+        <v>708.4</v>
       </c>
       <c r="N340" s="4">
         <v>2465</v>
@@ -15978,7 +15981,7 @@
         <v>66.7</v>
       </c>
       <c r="M341" s="4">
-        <v>699.4</v>
+        <v>703.9</v>
       </c>
       <c r="N341" s="4">
         <v>2465</v>
@@ -15998,7 +16001,7 @@
         <v>12</v>
       </c>
       <c r="D342" s="4">
-        <v>101.7</v>
+        <v>101.6</v>
       </c>
       <c r="E342" s="4">
         <v>105.9</v>
@@ -16025,7 +16028,7 @@
         <v>77.8</v>
       </c>
       <c r="M342" s="4">
-        <v>699.4</v>
+        <v>703.9</v>
       </c>
       <c r="N342" s="4">
         <v>2480</v>
@@ -16045,7 +16048,7 @@
         <v>1</v>
       </c>
       <c r="D343" s="4">
-        <v>101.8</v>
+        <v>101.7</v>
       </c>
       <c r="E343" s="4">
         <v>105.7</v>
@@ -16072,7 +16075,7 @@
         <v>77.8</v>
       </c>
       <c r="M343" s="4">
-        <v>694.9</v>
+        <v>699.4</v>
       </c>
       <c r="N343" s="4">
         <v>2460</v>
@@ -16092,7 +16095,7 @@
         <v>2</v>
       </c>
       <c r="D344" s="4">
-        <v>102.1</v>
+        <v>102</v>
       </c>
       <c r="E344" s="4">
         <v>105.9</v>
@@ -16119,7 +16122,7 @@
         <v>44.4</v>
       </c>
       <c r="M344" s="4">
-        <v>690.4</v>
+        <v>694.9</v>
       </c>
       <c r="N344" s="4">
         <v>2470</v>
@@ -16166,7 +16169,7 @@
         <v>38.9</v>
       </c>
       <c r="M345" s="4">
-        <v>685.9</v>
+        <v>690.4</v>
       </c>
       <c r="N345" s="4">
         <v>2440</v>
@@ -16189,10 +16192,10 @@
         <v>100.3</v>
       </c>
       <c r="E346" s="4">
-        <v>104.2</v>
+        <v>104.1</v>
       </c>
       <c r="F346" s="4">
-        <v>108.3</v>
+        <v>108.2</v>
       </c>
       <c r="G346" s="4">
         <v>101.7</v>
@@ -16213,7 +16216,7 @@
         <v>11.1</v>
       </c>
       <c r="M346" s="4">
-        <v>663.2</v>
+        <v>667.7</v>
       </c>
       <c r="N346" s="4">
         <v>2410</v>
@@ -16233,7 +16236,7 @@
         <v>5</v>
       </c>
       <c r="D347" s="4">
-        <v>99.5</v>
+        <v>99.4</v>
       </c>
       <c r="E347" s="4">
         <v>104.6</v>
@@ -16260,7 +16263,7 @@
         <v>22.2</v>
       </c>
       <c r="M347" s="4">
-        <v>649.6</v>
+        <v>654.1</v>
       </c>
       <c r="N347" s="4">
         <v>2380</v>
@@ -16283,7 +16286,7 @@
         <v>98.2</v>
       </c>
       <c r="E348" s="4">
-        <v>102</v>
+        <v>101.9</v>
       </c>
       <c r="F348" s="4">
         <v>107.2</v>
@@ -16307,7 +16310,7 @@
         <v>22.2</v>
       </c>
       <c r="M348" s="4">
-        <v>636</v>
+        <v>640.5</v>
       </c>
       <c r="N348" s="4">
         <v>2340</v>
@@ -16354,7 +16357,7 @@
         <v>33.299999999999997</v>
       </c>
       <c r="M349" s="4">
-        <v>604.20000000000005</v>
+        <v>608.70000000000005</v>
       </c>
       <c r="N349" s="4">
         <v>2320</v>
@@ -16377,7 +16380,7 @@
         <v>95.6</v>
       </c>
       <c r="E350" s="4">
-        <v>98.4</v>
+        <v>98.3</v>
       </c>
       <c r="F350" s="4">
         <v>106.1</v>
@@ -16389,7 +16392,7 @@
         <v>100.2</v>
       </c>
       <c r="I350" s="4">
-        <v>108.3</v>
+        <v>108.4</v>
       </c>
       <c r="J350" s="4">
         <v>27.3</v>
@@ -16401,7 +16404,7 @@
         <v>11.1</v>
       </c>
       <c r="M350" s="4">
-        <v>581.5</v>
+        <v>586</v>
       </c>
       <c r="N350" s="4">
         <v>2280</v>
@@ -16427,7 +16430,7 @@
         <v>97.5</v>
       </c>
       <c r="F351" s="4">
-        <v>105.6</v>
+        <v>105.7</v>
       </c>
       <c r="G351" s="4">
         <v>95.6</v>
@@ -16448,7 +16451,7 @@
         <v>33.299999999999997</v>
       </c>
       <c r="M351" s="4">
-        <v>545.1</v>
+        <v>549.6</v>
       </c>
       <c r="N351" s="4">
         <v>2230</v>
@@ -16468,7 +16471,7 @@
         <v>10</v>
       </c>
       <c r="D352" s="4">
-        <v>89.1</v>
+        <v>89</v>
       </c>
       <c r="E352" s="4">
         <v>94.3</v>
@@ -16495,7 +16498,7 @@
         <v>11.1</v>
       </c>
       <c r="M352" s="4">
-        <v>495.1</v>
+        <v>499.6</v>
       </c>
       <c r="N352" s="4">
         <v>2190</v>
@@ -16542,7 +16545,7 @@
         <v>44.4</v>
       </c>
       <c r="M353" s="4">
-        <v>445.1</v>
+        <v>449.6</v>
       </c>
       <c r="N353" s="4">
         <v>2140</v>
@@ -16562,10 +16565,10 @@
         <v>12</v>
       </c>
       <c r="D354" s="4">
-        <v>80.7</v>
+        <v>80.599999999999994</v>
       </c>
       <c r="E354" s="4">
-        <v>83.4</v>
+        <v>83.3</v>
       </c>
       <c r="F354" s="4">
         <v>98.9</v>
@@ -16589,7 +16592,7 @@
         <v>0</v>
       </c>
       <c r="M354" s="4">
-        <v>404.2</v>
+        <v>408.7</v>
       </c>
       <c r="N354" s="4">
         <v>2090</v>
@@ -16612,7 +16615,7 @@
         <v>75.099999999999994</v>
       </c>
       <c r="E355" s="4">
-        <v>75.900000000000006</v>
+        <v>75.8</v>
       </c>
       <c r="F355" s="4">
         <v>97</v>
@@ -16636,7 +16639,7 @@
         <v>0</v>
       </c>
       <c r="M355" s="4">
-        <v>363.3</v>
+        <v>367.8</v>
       </c>
       <c r="N355" s="4">
         <v>2040</v>
@@ -16683,7 +16686,7 @@
         <v>0</v>
       </c>
       <c r="M356" s="4">
-        <v>322.39999999999998</v>
+        <v>326.89999999999998</v>
       </c>
       <c r="N356" s="4">
         <v>1990</v>
@@ -16706,7 +16709,7 @@
         <v>74.2</v>
       </c>
       <c r="E357" s="4">
-        <v>71.7</v>
+        <v>71.599999999999994</v>
       </c>
       <c r="F357" s="4">
         <v>92.4</v>
@@ -16730,7 +16733,7 @@
         <v>11.1</v>
       </c>
       <c r="M357" s="4">
-        <v>290.60000000000002</v>
+        <v>295.10000000000002</v>
       </c>
       <c r="N357" s="4">
         <v>1940</v>
@@ -16753,7 +16756,7 @@
         <v>77.7</v>
       </c>
       <c r="E358" s="4">
-        <v>73</v>
+        <v>72.900000000000006</v>
       </c>
       <c r="F358" s="4">
         <v>90.9</v>
@@ -16777,7 +16780,7 @@
         <v>11.1</v>
       </c>
       <c r="M358" s="4">
-        <v>313.3</v>
+        <v>317.8</v>
       </c>
       <c r="N358" s="4">
         <v>1920</v>
@@ -16824,7 +16827,7 @@
         <v>22.2</v>
       </c>
       <c r="M359" s="4">
-        <v>345.1</v>
+        <v>349.6</v>
       </c>
       <c r="N359" s="4">
         <v>1930</v>
@@ -16844,7 +16847,7 @@
         <v>6</v>
       </c>
       <c r="D360" s="4">
-        <v>83.4</v>
+        <v>83.3</v>
       </c>
       <c r="E360" s="4">
         <v>75.900000000000006</v>
@@ -16871,7 +16874,7 @@
         <v>11.1</v>
       </c>
       <c r="M360" s="4">
-        <v>376.9</v>
+        <v>381.4</v>
       </c>
       <c r="N360" s="4">
         <v>1960</v>
@@ -16918,7 +16921,7 @@
         <v>11.1</v>
       </c>
       <c r="M361" s="4">
-        <v>395.1</v>
+        <v>399.6</v>
       </c>
       <c r="N361" s="4">
         <v>1980</v>
@@ -16941,7 +16944,7 @@
         <v>86.8</v>
       </c>
       <c r="E362" s="4">
-        <v>78.3</v>
+        <v>78.2</v>
       </c>
       <c r="F362" s="4">
         <v>86.2</v>
@@ -16965,7 +16968,7 @@
         <v>33.299999999999997</v>
       </c>
       <c r="M362" s="4">
-        <v>426.9</v>
+        <v>431.4</v>
       </c>
       <c r="N362" s="4">
         <v>2020</v>
@@ -16988,7 +16991,7 @@
         <v>89.4</v>
       </c>
       <c r="E363" s="4">
-        <v>80.3</v>
+        <v>80.2</v>
       </c>
       <c r="F363" s="4">
         <v>86</v>
@@ -17012,7 +17015,7 @@
         <v>33.299999999999997</v>
       </c>
       <c r="M363" s="4">
-        <v>458.7</v>
+        <v>463.2</v>
       </c>
       <c r="N363" s="4">
         <v>2060</v>
@@ -17059,7 +17062,7 @@
         <v>38.9</v>
       </c>
       <c r="M364" s="4">
-        <v>499.6</v>
+        <v>504.1</v>
       </c>
       <c r="N364" s="4">
         <v>2100</v>
@@ -17082,7 +17085,7 @@
         <v>91.4</v>
       </c>
       <c r="E365" s="4">
-        <v>83.9</v>
+        <v>83.8</v>
       </c>
       <c r="F365" s="4">
         <v>85.7</v>
@@ -17106,7 +17109,7 @@
         <v>33.299999999999997</v>
       </c>
       <c r="M365" s="4">
-        <v>540.5</v>
+        <v>545</v>
       </c>
       <c r="N365" s="4">
         <v>2150</v>
@@ -17126,7 +17129,7 @@
         <v>12</v>
       </c>
       <c r="D366" s="4">
-        <v>93.5</v>
+        <v>93.4</v>
       </c>
       <c r="E366" s="4">
         <v>85.3</v>
@@ -17153,7 +17156,7 @@
         <v>55.6</v>
       </c>
       <c r="M366" s="4">
-        <v>563.20000000000005</v>
+        <v>567.70000000000005</v>
       </c>
       <c r="N366" s="4">
         <v>2200</v>
@@ -17176,7 +17179,7 @@
         <v>94.4</v>
       </c>
       <c r="E367" s="4">
-        <v>87.9</v>
+        <v>87.8</v>
       </c>
       <c r="F367" s="4">
         <v>87</v>
@@ -17200,7 +17203,7 @@
         <v>66.7</v>
       </c>
       <c r="M367" s="4">
-        <v>576.79999999999995</v>
+        <v>581.29999999999995</v>
       </c>
       <c r="N367" s="4">
         <v>2240</v>
@@ -17247,7 +17250,7 @@
         <v>55.6</v>
       </c>
       <c r="M368" s="4">
-        <v>599.5</v>
+        <v>604</v>
       </c>
       <c r="N368" s="4">
         <v>2280</v>
@@ -17294,7 +17297,7 @@
         <v>66.7</v>
       </c>
       <c r="M369" s="4">
-        <v>640.4</v>
+        <v>644.9</v>
       </c>
       <c r="N369" s="4">
         <v>2320</v>
@@ -17314,7 +17317,7 @@
         <v>4</v>
       </c>
       <c r="D370" s="4">
-        <v>98.5</v>
+        <v>98.4</v>
       </c>
       <c r="E370" s="4">
         <v>90.9</v>
@@ -17341,7 +17344,7 @@
         <v>33.299999999999997</v>
       </c>
       <c r="M370" s="4">
-        <v>681.3</v>
+        <v>685.8</v>
       </c>
       <c r="N370" s="4">
         <v>2360</v>
@@ -17388,7 +17391,7 @@
         <v>50</v>
       </c>
       <c r="M371" s="4">
-        <v>722.2</v>
+        <v>726.7</v>
       </c>
       <c r="N371" s="4">
         <v>2360</v>
@@ -17435,7 +17438,7 @@
         <v>44.4</v>
       </c>
       <c r="M372" s="4">
-        <v>735.8</v>
+        <v>740.3</v>
       </c>
       <c r="N372" s="4">
         <v>2360</v>
@@ -17461,7 +17464,7 @@
         <v>91.7</v>
       </c>
       <c r="F373" s="4">
-        <v>89.1</v>
+        <v>89</v>
       </c>
       <c r="G373" s="4">
         <v>94.3</v>
@@ -17482,7 +17485,7 @@
         <v>88.9</v>
       </c>
       <c r="M373" s="4">
-        <v>740.3</v>
+        <v>744.8</v>
       </c>
       <c r="N373" s="4">
         <v>2360</v>
@@ -17529,7 +17532,7 @@
         <v>66.7</v>
       </c>
       <c r="M374" s="4">
-        <v>735.8</v>
+        <v>740.3</v>
       </c>
       <c r="N374" s="4">
         <v>2390</v>
@@ -17549,7 +17552,7 @@
         <v>9</v>
       </c>
       <c r="D375" s="4">
-        <v>97.3</v>
+        <v>97.2</v>
       </c>
       <c r="E375" s="4">
         <v>92.6</v>
@@ -17576,7 +17579,7 @@
         <v>55.6</v>
       </c>
       <c r="M375" s="4">
-        <v>740.3</v>
+        <v>744.8</v>
       </c>
       <c r="N375" s="4">
         <v>2410</v>
@@ -17623,7 +17626,7 @@
         <v>44.4</v>
       </c>
       <c r="M376" s="4">
-        <v>744.8</v>
+        <v>749.3</v>
       </c>
       <c r="N376" s="4">
         <v>2410</v>
@@ -17643,10 +17646,10 @@
         <v>11</v>
       </c>
       <c r="D377" s="4">
-        <v>98</v>
+        <v>97.9</v>
       </c>
       <c r="E377" s="4">
-        <v>94</v>
+        <v>93.9</v>
       </c>
       <c r="F377" s="4">
         <v>89.7</v>
@@ -17670,7 +17673,7 @@
         <v>83.3</v>
       </c>
       <c r="M377" s="4">
-        <v>740.3</v>
+        <v>744.8</v>
       </c>
       <c r="N377" s="4">
         <v>2440</v>
@@ -17717,7 +17720,7 @@
         <v>66.7</v>
       </c>
       <c r="M378" s="4">
-        <v>753.9</v>
+        <v>758.4</v>
       </c>
       <c r="N378" s="4">
         <v>2460</v>
@@ -17764,7 +17767,7 @@
         <v>55.6</v>
       </c>
       <c r="M379" s="4">
-        <v>767.5</v>
+        <v>772</v>
       </c>
       <c r="N379" s="4">
         <v>2490</v>
@@ -17787,7 +17790,7 @@
         <v>99.9</v>
       </c>
       <c r="E380" s="4">
-        <v>95.4</v>
+        <v>95.3</v>
       </c>
       <c r="F380" s="4">
         <v>90.9</v>
@@ -17811,7 +17814,7 @@
         <v>66.7</v>
       </c>
       <c r="M380" s="4">
-        <v>772</v>
+        <v>776.5</v>
       </c>
       <c r="N380" s="4">
         <v>2520</v>
@@ -17831,7 +17834,7 @@
         <v>3</v>
       </c>
       <c r="D381" s="4">
-        <v>97.6</v>
+        <v>97.5</v>
       </c>
       <c r="E381" s="4">
         <v>88</v>
@@ -17858,7 +17861,7 @@
         <v>27.8</v>
       </c>
       <c r="M381" s="4">
-        <v>767.5</v>
+        <v>772</v>
       </c>
       <c r="N381" s="4">
         <v>2480</v>
@@ -17893,7 +17896,7 @@
         <v>85.2</v>
       </c>
       <c r="I382" s="4">
-        <v>89.7</v>
+        <v>89.6</v>
       </c>
       <c r="J382" s="4">
         <v>27.3</v>
@@ -17905,7 +17908,7 @@
         <v>33.299999999999997</v>
       </c>
       <c r="M382" s="4">
-        <v>744.8</v>
+        <v>749.3</v>
       </c>
       <c r="N382" s="4">
         <v>2440</v>
@@ -17952,7 +17955,7 @@
         <v>22.2</v>
       </c>
       <c r="M383" s="4">
-        <v>731.2</v>
+        <v>735.7</v>
       </c>
       <c r="N383" s="4">
         <v>2390</v>
@@ -17999,7 +18002,7 @@
         <v>66.7</v>
       </c>
       <c r="M384" s="4">
-        <v>726.7</v>
+        <v>731.2</v>
       </c>
       <c r="N384" s="4">
         <v>2425</v>
@@ -18046,7 +18049,7 @@
         <v>50</v>
       </c>
       <c r="M385" s="4">
-        <v>749.4</v>
+        <v>753.9</v>
       </c>
       <c r="N385" s="4">
         <v>2465</v>
@@ -18066,7 +18069,7 @@
         <v>8</v>
       </c>
       <c r="D386" s="4">
-        <v>99.4</v>
+        <v>99.3</v>
       </c>
       <c r="E386" s="4">
         <v>93.1</v>
@@ -18093,7 +18096,7 @@
         <v>77.8</v>
       </c>
       <c r="M386" s="4">
-        <v>776.7</v>
+        <v>781.2</v>
       </c>
       <c r="N386" s="4">
         <v>2505</v>
@@ -18113,7 +18116,7 @@
         <v>9</v>
       </c>
       <c r="D387" s="4">
-        <v>98.1</v>
+        <v>98</v>
       </c>
       <c r="E387" s="4">
         <v>93.8</v>
@@ -18140,7 +18143,7 @@
         <v>77.8</v>
       </c>
       <c r="M387" s="4">
-        <v>763.1</v>
+        <v>767.6</v>
       </c>
       <c r="N387" s="4">
         <v>2525</v>
@@ -18160,7 +18163,7 @@
         <v>10</v>
       </c>
       <c r="D388" s="4">
-        <v>98.3</v>
+        <v>98.2</v>
       </c>
       <c r="E388" s="4">
         <v>95.1</v>
@@ -18187,7 +18190,7 @@
         <v>66.7</v>
       </c>
       <c r="M388" s="4">
-        <v>758.6</v>
+        <v>763.1</v>
       </c>
       <c r="N388" s="4">
         <v>2545</v>
@@ -18207,7 +18210,7 @@
         <v>11</v>
       </c>
       <c r="D389" s="4">
-        <v>98</v>
+        <v>97.9</v>
       </c>
       <c r="E389" s="4">
         <v>93.8</v>
@@ -18234,7 +18237,7 @@
         <v>55.6</v>
       </c>
       <c r="M389" s="4">
-        <v>745</v>
+        <v>749.5</v>
       </c>
       <c r="N389" s="4">
         <v>2535</v>
@@ -18254,13 +18257,13 @@
         <v>12</v>
       </c>
       <c r="D390" s="4">
-        <v>98.6</v>
+        <v>98.5</v>
       </c>
       <c r="E390" s="4">
         <v>95.5</v>
       </c>
       <c r="F390" s="4">
-        <v>92.8</v>
+        <v>92.7</v>
       </c>
       <c r="G390" s="4">
         <v>94.4</v>
@@ -18281,7 +18284,7 @@
         <v>38.9</v>
       </c>
       <c r="M390" s="4">
-        <v>758.6</v>
+        <v>763.1</v>
       </c>
       <c r="N390" s="4">
         <v>2545</v>
@@ -18328,7 +18331,7 @@
         <v>27.8</v>
       </c>
       <c r="M391" s="4">
-        <v>772.2</v>
+        <v>776.7</v>
       </c>
       <c r="N391" s="4">
         <v>2575</v>
@@ -18375,7 +18378,7 @@
         <v>55.6</v>
       </c>
       <c r="M392" s="4">
-        <v>794.9</v>
+        <v>799.4</v>
       </c>
       <c r="N392" s="4">
         <v>2615</v>
@@ -18422,7 +18425,7 @@
         <v>72.2</v>
       </c>
       <c r="M393" s="4">
-        <v>817.6</v>
+        <v>822.1</v>
       </c>
       <c r="N393" s="4">
         <v>2650</v>
@@ -18469,7 +18472,7 @@
         <v>77.8</v>
       </c>
       <c r="M394" s="4">
-        <v>822.1</v>
+        <v>826.6</v>
       </c>
       <c r="N394" s="4">
         <v>2650</v>
@@ -18516,7 +18519,7 @@
         <v>55.6</v>
       </c>
       <c r="M395" s="4">
-        <v>817.6</v>
+        <v>822.1</v>
       </c>
       <c r="N395" s="4">
         <v>2640</v>
@@ -18536,7 +18539,7 @@
         <v>6</v>
       </c>
       <c r="D396" s="4">
-        <v>97.5</v>
+        <v>97.4</v>
       </c>
       <c r="E396" s="4">
         <v>94.1</v>
@@ -18563,7 +18566,7 @@
         <v>44.4</v>
       </c>
       <c r="M396" s="4">
-        <v>790.3</v>
+        <v>794.8</v>
       </c>
       <c r="N396" s="4">
         <v>2600</v>
@@ -18610,7 +18613,7 @@
         <v>22.2</v>
       </c>
       <c r="M397" s="4">
-        <v>772.1</v>
+        <v>776.6</v>
       </c>
       <c r="N397" s="4">
         <v>2560</v>
@@ -18636,7 +18639,7 @@
         <v>93.5</v>
       </c>
       <c r="F398" s="4">
-        <v>93.1</v>
+        <v>93</v>
       </c>
       <c r="G398" s="4">
         <v>93.3</v>
@@ -18657,7 +18660,7 @@
         <v>33.299999999999997</v>
       </c>
       <c r="M398" s="4">
-        <v>776.6</v>
+        <v>781.1</v>
       </c>
       <c r="N398" s="4">
         <v>2520</v>
@@ -18677,13 +18680,13 @@
         <v>9</v>
       </c>
       <c r="D399" s="4">
-        <v>95.5</v>
+        <v>95.4</v>
       </c>
       <c r="E399" s="4">
         <v>92.1</v>
       </c>
       <c r="F399" s="4">
-        <v>93</v>
+        <v>92.9</v>
       </c>
       <c r="G399" s="4">
         <v>92.4</v>
@@ -18704,7 +18707,7 @@
         <v>44.4</v>
       </c>
       <c r="M399" s="4">
-        <v>790.2</v>
+        <v>794.7</v>
       </c>
       <c r="N399" s="4">
         <v>2490</v>
@@ -18751,7 +18754,7 @@
         <v>72.2</v>
       </c>
       <c r="M400" s="4">
-        <v>781.1</v>
+        <v>785.6</v>
       </c>
       <c r="N400" s="4">
         <v>2480</v>
@@ -18798,7 +18801,7 @@
         <v>66.7</v>
       </c>
       <c r="M401" s="4">
-        <v>758.4</v>
+        <v>762.9</v>
       </c>
       <c r="N401" s="4">
         <v>2455</v>
@@ -18818,13 +18821,13 @@
         <v>12</v>
       </c>
       <c r="D402" s="4">
-        <v>96.1</v>
+        <v>96</v>
       </c>
       <c r="E402" s="4">
         <v>92.7</v>
       </c>
       <c r="F402" s="4">
-        <v>92.9</v>
+        <v>92.8</v>
       </c>
       <c r="G402" s="4">
         <v>93.4</v>
@@ -18845,7 +18848,7 @@
         <v>44.4</v>
       </c>
       <c r="M402" s="4">
-        <v>790.2</v>
+        <v>794.7</v>
       </c>
       <c r="N402" s="4">
         <v>2465</v>
@@ -18865,13 +18868,13 @@
         <v>1</v>
       </c>
       <c r="D403" s="4">
-        <v>98.2</v>
+        <v>98.1</v>
       </c>
       <c r="E403" s="4">
         <v>93.1</v>
       </c>
       <c r="F403" s="4">
-        <v>92.4</v>
+        <v>92.3</v>
       </c>
       <c r="G403" s="4">
         <v>95.8</v>
@@ -18892,7 +18895,7 @@
         <v>33.299999999999997</v>
       </c>
       <c r="M403" s="4">
-        <v>803.8</v>
+        <v>808.3</v>
       </c>
       <c r="N403" s="4">
         <v>2495</v>
@@ -18939,7 +18942,7 @@
         <v>44.4</v>
       </c>
       <c r="M404" s="4">
-        <v>844.7</v>
+        <v>849.2</v>
       </c>
       <c r="N404" s="4">
         <v>2525</v>
@@ -18986,7 +18989,7 @@
         <v>44.4</v>
       </c>
       <c r="M405" s="4">
-        <v>894.7</v>
+        <v>899.2</v>
       </c>
       <c r="N405" s="4">
         <v>2555</v>
@@ -19006,7 +19009,7 @@
         <v>4</v>
       </c>
       <c r="D406" s="4">
-        <v>104.2</v>
+        <v>104.1</v>
       </c>
       <c r="E406" s="4">
         <v>96</v>
@@ -19033,7 +19036,7 @@
         <v>44.4</v>
       </c>
       <c r="M406" s="4">
-        <v>944.7</v>
+        <v>949.2</v>
       </c>
       <c r="N406" s="4">
         <v>2595</v>
@@ -19080,7 +19083,7 @@
         <v>55.6</v>
       </c>
       <c r="M407" s="4">
-        <v>994.7</v>
+        <v>999.2</v>
       </c>
       <c r="N407" s="4">
         <v>2645</v>
@@ -19127,7 +19130,7 @@
         <v>55.6</v>
       </c>
       <c r="M408" s="4">
-        <v>1026.5</v>
+        <v>1031</v>
       </c>
       <c r="N408" s="4">
         <v>2675</v>
@@ -19174,7 +19177,7 @@
         <v>55.6</v>
       </c>
       <c r="M409" s="4">
-        <v>1058.3</v>
+        <v>1062.8</v>
       </c>
       <c r="N409" s="4">
         <v>2705</v>
@@ -19194,7 +19197,7 @@
         <v>8</v>
       </c>
       <c r="D410" s="4">
-        <v>105.5</v>
+        <v>105.4</v>
       </c>
       <c r="E410" s="4">
         <v>98.9</v>
@@ -19221,7 +19224,7 @@
         <v>66.7</v>
       </c>
       <c r="M410" s="4">
-        <v>1090.0999999999999</v>
+        <v>1094.5999999999999</v>
       </c>
       <c r="N410" s="4">
         <v>2725</v>
@@ -19241,7 +19244,7 @@
         <v>9</v>
       </c>
       <c r="D411" s="4">
-        <v>106.8</v>
+        <v>106.7</v>
       </c>
       <c r="E411" s="4">
         <v>99.5</v>
@@ -19268,7 +19271,7 @@
         <v>77.8</v>
       </c>
       <c r="M411" s="4">
-        <v>1135.5999999999999</v>
+        <v>1140.0999999999999</v>
       </c>
       <c r="N411" s="4">
         <v>2765</v>
@@ -19315,7 +19318,7 @@
         <v>88.9</v>
       </c>
       <c r="M412" s="4">
-        <v>1167.4000000000001</v>
+        <v>1171.9000000000001</v>
       </c>
       <c r="N412" s="4">
         <v>2795</v>
@@ -19362,7 +19365,7 @@
         <v>77.8</v>
       </c>
       <c r="M413" s="4">
-        <v>1217.4000000000001</v>
+        <v>1221.9000000000001</v>
       </c>
       <c r="N413" s="4">
         <v>2835</v>
@@ -19409,7 +19412,7 @@
         <v>77.8</v>
       </c>
       <c r="M414" s="4">
-        <v>1249.2</v>
+        <v>1253.7</v>
       </c>
       <c r="N414" s="4">
         <v>2865</v>
@@ -19456,7 +19459,7 @@
         <v>100</v>
       </c>
       <c r="M415" s="4">
-        <v>1281</v>
+        <v>1285.5</v>
       </c>
       <c r="N415" s="4">
         <v>2895</v>
@@ -19503,7 +19506,7 @@
         <v>55.6</v>
       </c>
       <c r="M416" s="4">
-        <v>1258.3</v>
+        <v>1262.8</v>
       </c>
       <c r="N416" s="4">
         <v>2895</v>
@@ -19550,7 +19553,7 @@
         <v>61.1</v>
       </c>
       <c r="M417" s="4">
-        <v>1244.7</v>
+        <v>1249.2</v>
       </c>
       <c r="N417" s="4">
         <v>2920</v>
@@ -19597,7 +19600,7 @@
         <v>27.8</v>
       </c>
       <c r="M418" s="4">
-        <v>1194.7</v>
+        <v>1199.2</v>
       </c>
       <c r="N418" s="4">
         <v>2890</v>
@@ -19644,7 +19647,7 @@
         <v>66.7</v>
       </c>
       <c r="M419" s="4">
-        <v>1162.9000000000001</v>
+        <v>1167.4000000000001</v>
       </c>
       <c r="N419" s="4">
         <v>2860</v>
@@ -19691,7 +19694,7 @@
         <v>50</v>
       </c>
       <c r="M420" s="4">
-        <v>1140.2</v>
+        <v>1144.7</v>
       </c>
       <c r="N420" s="4">
         <v>2840</v>
@@ -19738,7 +19741,7 @@
         <v>83.3</v>
       </c>
       <c r="M421" s="4">
-        <v>1135.7</v>
+        <v>1140.2</v>
       </c>
       <c r="N421" s="4">
         <v>2880</v>
@@ -19785,7 +19788,7 @@
         <v>50</v>
       </c>
       <c r="M422" s="4">
-        <v>1158.4000000000001</v>
+        <v>1162.9000000000001</v>
       </c>
       <c r="N422" s="4">
         <v>2880</v>
@@ -19832,7 +19835,7 @@
         <v>44.4</v>
       </c>
       <c r="M423" s="4">
-        <v>1167.5</v>
+        <v>1172</v>
       </c>
       <c r="N423" s="4">
         <v>2920</v>
@@ -19858,7 +19861,7 @@
         <v>100.5</v>
       </c>
       <c r="F424" s="4">
-        <v>100.5</v>
+        <v>100.4</v>
       </c>
       <c r="G424" s="4">
         <v>100</v>
@@ -19879,7 +19882,7 @@
         <v>38.9</v>
       </c>
       <c r="M424" s="4">
-        <v>1153.9000000000001</v>
+        <v>1158.4000000000001</v>
       </c>
       <c r="N424" s="4">
         <v>2950</v>
@@ -19926,7 +19929,7 @@
         <v>44.4</v>
       </c>
       <c r="M425" s="4">
-        <v>1167.5</v>
+        <v>1172</v>
       </c>
       <c r="N425" s="4">
         <v>2960</v>
@@ -19973,7 +19976,7 @@
         <v>38.9</v>
       </c>
       <c r="M426" s="4">
-        <v>1172</v>
+        <v>1176.5</v>
       </c>
       <c r="N426" s="4">
         <v>2940</v>
@@ -20020,7 +20023,7 @@
         <v>66.7</v>
       </c>
       <c r="M427" s="4">
-        <v>1185.5999999999999</v>
+        <v>1190.0999999999999</v>
       </c>
       <c r="N427" s="4">
         <v>2960</v>
@@ -20067,7 +20070,7 @@
         <v>44.4</v>
       </c>
       <c r="M428" s="4">
-        <v>1190.0999999999999</v>
+        <v>1194.5999999999999</v>
       </c>
       <c r="N428" s="4">
         <v>2960</v>
@@ -20114,7 +20117,7 @@
         <v>55.6</v>
       </c>
       <c r="M429" s="4">
-        <v>1185.5999999999999</v>
+        <v>1190.0999999999999</v>
       </c>
       <c r="N429" s="4">
         <v>2950</v>
@@ -20161,7 +20164,7 @@
         <v>66.7</v>
       </c>
       <c r="M430" s="4">
-        <v>1208.3</v>
+        <v>1212.8</v>
       </c>
       <c r="N430" s="4">
         <v>2950</v>
@@ -20208,7 +20211,7 @@
         <v>66.7</v>
       </c>
       <c r="M431" s="4">
-        <v>1240.0999999999999</v>
+        <v>1244.5999999999999</v>
       </c>
       <c r="N431" s="4">
         <v>2950</v>
@@ -20255,7 +20258,7 @@
         <v>66.7</v>
       </c>
       <c r="M432" s="4">
-        <v>1285.5999999999999</v>
+        <v>1290.0999999999999</v>
       </c>
       <c r="N432" s="4">
         <v>2970</v>
@@ -20302,7 +20305,7 @@
         <v>50</v>
       </c>
       <c r="M433" s="4">
-        <v>1281.0999999999999</v>
+        <v>1285.5999999999999</v>
       </c>
       <c r="N433" s="4">
         <v>2970</v>
@@ -20349,7 +20352,7 @@
         <v>27.8</v>
       </c>
       <c r="M434" s="4">
-        <v>1272</v>
+        <v>1276.5</v>
       </c>
       <c r="N434" s="4">
         <v>2960</v>
@@ -20396,7 +20399,7 @@
         <v>38.9</v>
       </c>
       <c r="M435" s="4">
-        <v>1253.8</v>
+        <v>1258.3</v>
       </c>
       <c r="N435" s="4">
         <v>2950</v>
@@ -20434,7 +20437,7 @@
         <v>99.5</v>
       </c>
       <c r="J436" s="4">
-        <v>50</v>
+        <v>54.5</v>
       </c>
       <c r="K436" s="4">
         <v>45</v>
@@ -20443,7 +20446,7 @@
         <v>27.8</v>
       </c>
       <c r="M436" s="4">
-        <v>1253.8</v>
+        <v>1262.8</v>
       </c>
       <c r="N436" s="4">
         <v>2945</v>
@@ -20490,7 +20493,7 @@
         <v>66.7</v>
       </c>
       <c r="M437" s="4">
-        <v>1240.2</v>
+        <v>1249.2</v>
       </c>
       <c r="N437" s="4">
         <v>2945</v>
@@ -20516,7 +20519,7 @@
         <v>98.6</v>
       </c>
       <c r="F438" s="4">
-        <v>100.1</v>
+        <v>100</v>
       </c>
       <c r="G438" s="4">
         <v>97</v>
@@ -20537,7 +20540,7 @@
         <v>61.1</v>
       </c>
       <c r="M438" s="4">
-        <v>1235.7</v>
+        <v>1244.7</v>
       </c>
       <c r="N438" s="4">
         <v>2915</v>
@@ -20584,7 +20587,7 @@
         <v>55.6</v>
       </c>
       <c r="M439" s="4">
-        <v>1231.2</v>
+        <v>1240.2</v>
       </c>
       <c r="N439" s="4">
         <v>2895</v>
@@ -20631,7 +20634,7 @@
         <v>55.6</v>
       </c>
       <c r="M440" s="4">
-        <v>1208.5</v>
+        <v>1217.5</v>
       </c>
       <c r="N440" s="4">
         <v>2885</v>
@@ -20666,7 +20669,7 @@
         <v>99.2</v>
       </c>
       <c r="I441" s="4">
-        <v>98.9</v>
+        <v>98.8</v>
       </c>
       <c r="J441" s="4">
         <v>45.5</v>
@@ -20678,7 +20681,7 @@
         <v>55.6</v>
       </c>
       <c r="M441" s="4">
-        <v>1204</v>
+        <v>1213</v>
       </c>
       <c r="N441" s="4">
         <v>2905</v>
@@ -20725,7 +20728,7 @@
         <v>66.7</v>
       </c>
       <c r="M442" s="4">
-        <v>1208.5</v>
+        <v>1217.5</v>
       </c>
       <c r="N442" s="4">
         <v>2875</v>
@@ -20772,7 +20775,7 @@
         <v>33.299999999999997</v>
       </c>
       <c r="M443" s="4">
-        <v>1231.2</v>
+        <v>1240.2</v>
       </c>
       <c r="N443" s="4">
         <v>2855</v>
@@ -20798,7 +20801,7 @@
         <v>98.9</v>
       </c>
       <c r="F444" s="4">
-        <v>99.3</v>
+        <v>99.4</v>
       </c>
       <c r="G444" s="4">
         <v>95.8</v>
@@ -20807,7 +20810,7 @@
         <v>99.2</v>
       </c>
       <c r="I444" s="4">
-        <v>98.9</v>
+        <v>99</v>
       </c>
       <c r="J444" s="4">
         <v>72.7</v>
@@ -20819,7 +20822,7 @@
         <v>61.1</v>
       </c>
       <c r="M444" s="4">
-        <v>1253.9000000000001</v>
+        <v>1262.9000000000001</v>
       </c>
       <c r="N444" s="4">
         <v>2855</v>
@@ -20866,7 +20869,7 @@
         <v>55.6</v>
       </c>
       <c r="M445" s="4">
-        <v>1253.9000000000001</v>
+        <v>1262.9000000000001</v>
       </c>
       <c r="N445" s="4">
         <v>2885</v>
@@ -20913,7 +20916,7 @@
         <v>77.8</v>
       </c>
       <c r="M446" s="4">
-        <v>1240.3</v>
+        <v>1249.3</v>
       </c>
       <c r="N446" s="4">
         <v>2915</v>
@@ -20960,7 +20963,7 @@
         <v>72.2</v>
       </c>
       <c r="M447" s="4">
-        <v>1253.9000000000001</v>
+        <v>1262.9000000000001</v>
       </c>
       <c r="N447" s="4">
         <v>2955</v>
@@ -20995,7 +20998,7 @@
         <v>100.8</v>
       </c>
       <c r="I448" s="4">
-        <v>99.3</v>
+        <v>99.2</v>
       </c>
       <c r="J448" s="4">
         <v>81.8</v>
@@ -21007,7 +21010,7 @@
         <v>88.9</v>
       </c>
       <c r="M448" s="4">
-        <v>1285.7</v>
+        <v>1294.7</v>
       </c>
       <c r="N448" s="4">
         <v>3000</v>
@@ -21054,7 +21057,7 @@
         <v>72.2</v>
       </c>
       <c r="M449" s="4">
-        <v>1317.5</v>
+        <v>1326.5</v>
       </c>
       <c r="N449" s="4">
         <v>3050</v>
@@ -21077,10 +21080,10 @@
         <v>100.3</v>
       </c>
       <c r="E450" s="4">
-        <v>102</v>
+        <v>102.1</v>
       </c>
       <c r="F450" s="4">
-        <v>100.4</v>
+        <v>100.3</v>
       </c>
       <c r="G450" s="4">
         <v>100.5</v>
@@ -21101,7 +21104,7 @@
         <v>66.7</v>
       </c>
       <c r="M450" s="4">
-        <v>1349.3</v>
+        <v>1358.3</v>
       </c>
       <c r="N450" s="4">
         <v>3090</v>
@@ -21148,7 +21151,7 @@
         <v>77.8</v>
       </c>
       <c r="M451" s="4">
-        <v>1390.2</v>
+        <v>1399.2</v>
       </c>
       <c r="N451" s="4">
         <v>3110</v>
@@ -21195,7 +21198,7 @@
         <v>88.9</v>
       </c>
       <c r="M452" s="4">
-        <v>1403.8</v>
+        <v>1412.8</v>
       </c>
       <c r="N452" s="4">
         <v>3110</v>
@@ -21242,7 +21245,7 @@
         <v>88.9</v>
       </c>
       <c r="M453" s="4">
-        <v>1417.4</v>
+        <v>1426.4</v>
       </c>
       <c r="N453" s="4">
         <v>3120</v>
@@ -21289,7 +21292,7 @@
         <v>66.7</v>
       </c>
       <c r="M454" s="4">
-        <v>1417.4</v>
+        <v>1426.4</v>
       </c>
       <c r="N454" s="4">
         <v>3150</v>
@@ -21321,7 +21324,7 @@
         <v>100.6</v>
       </c>
       <c r="H455" s="4">
-        <v>103.3</v>
+        <v>103.2</v>
       </c>
       <c r="I455" s="4">
         <v>101.5</v>
@@ -21336,7 +21339,7 @@
         <v>66.7</v>
       </c>
       <c r="M455" s="4">
-        <v>1449.2</v>
+        <v>1458.2</v>
       </c>
       <c r="N455" s="4">
         <v>3150</v>
@@ -21362,7 +21365,7 @@
         <v>103.9</v>
       </c>
       <c r="F456" s="4">
-        <v>102.1</v>
+        <v>102.2</v>
       </c>
       <c r="G456" s="4">
         <v>101.1</v>
@@ -21371,7 +21374,7 @@
         <v>104.2</v>
       </c>
       <c r="I456" s="4">
-        <v>101.7</v>
+        <v>101.8</v>
       </c>
       <c r="J456" s="4">
         <v>54.5</v>
@@ -21383,7 +21386,7 @@
         <v>66.7</v>
       </c>
       <c r="M456" s="4">
-        <v>1453.7</v>
+        <v>1462.7</v>
       </c>
       <c r="N456" s="4">
         <v>3190</v>
@@ -21403,7 +21406,7 @@
         <v>7</v>
       </c>
       <c r="D457" s="4">
-        <v>100.8</v>
+        <v>100.9</v>
       </c>
       <c r="E457" s="4">
         <v>103.1</v>
@@ -21430,7 +21433,7 @@
         <v>55.6</v>
       </c>
       <c r="M457" s="4">
-        <v>1467.3</v>
+        <v>1476.3</v>
       </c>
       <c r="N457" s="4">
         <v>3180</v>
@@ -21477,7 +21480,7 @@
         <v>55.6</v>
       </c>
       <c r="M458" s="4">
-        <v>1503.7</v>
+        <v>1512.7</v>
       </c>
       <c r="N458" s="4">
         <v>3210</v>
@@ -21524,7 +21527,7 @@
         <v>77.8</v>
       </c>
       <c r="M459" s="4">
-        <v>1517.3</v>
+        <v>1526.3</v>
       </c>
       <c r="N459" s="4">
         <v>3205</v>
@@ -21571,7 +21574,7 @@
         <v>94.4</v>
       </c>
       <c r="M460" s="4">
-        <v>1530.9</v>
+        <v>1539.9</v>
       </c>
       <c r="N460" s="4">
         <v>3225</v>
@@ -21597,13 +21600,13 @@
         <v>105.1</v>
       </c>
       <c r="F461" s="4">
-        <v>104</v>
+        <v>103.9</v>
       </c>
       <c r="G461" s="4">
         <v>103</v>
       </c>
       <c r="H461" s="4">
-        <v>105.3</v>
+        <v>105.4</v>
       </c>
       <c r="I461" s="4">
         <v>103.6</v>
@@ -21618,7 +21621,7 @@
         <v>100</v>
       </c>
       <c r="M461" s="4">
-        <v>1549.1</v>
+        <v>1558.1</v>
       </c>
       <c r="N461" s="4">
         <v>3255</v>
@@ -21665,7 +21668,7 @@
         <v>94.4</v>
       </c>
       <c r="M462" s="4">
-        <v>1544.6</v>
+        <v>1553.6</v>
       </c>
       <c r="N462" s="4">
         <v>3295</v>
@@ -21712,7 +21715,7 @@
         <v>61.1</v>
       </c>
       <c r="M463" s="4">
-        <v>1549.1</v>
+        <v>1558.1</v>
       </c>
       <c r="N463" s="4">
         <v>3295</v>
@@ -21732,7 +21735,7 @@
         <v>2</v>
       </c>
       <c r="D464" s="4">
-        <v>100.8</v>
+        <v>100.7</v>
       </c>
       <c r="E464" s="4">
         <v>104.5</v>
@@ -21759,7 +21762,7 @@
         <v>61.1</v>
       </c>
       <c r="M464" s="4">
-        <v>1526.4</v>
+        <v>1535.4</v>
       </c>
       <c r="N464" s="4">
         <v>3265</v>
@@ -21806,7 +21809,7 @@
         <v>72.2</v>
       </c>
       <c r="M465" s="4">
-        <v>1494.6</v>
+        <v>1503.6</v>
       </c>
       <c r="N465" s="4">
         <v>3230</v>
@@ -21853,7 +21856,7 @@
         <v>55.6</v>
       </c>
       <c r="M466" s="4">
-        <v>1499.1</v>
+        <v>1508.1</v>
       </c>
       <c r="N466" s="4">
         <v>3245</v>
@@ -21900,7 +21903,7 @@
         <v>66.7</v>
       </c>
       <c r="M467" s="4">
-        <v>1508.2</v>
+        <v>1517.2</v>
       </c>
       <c r="N467" s="4">
         <v>3270</v>
@@ -21923,7 +21926,7 @@
         <v>100.3</v>
       </c>
       <c r="E468" s="4">
-        <v>105.1</v>
+        <v>105</v>
       </c>
       <c r="F468" s="4">
         <v>104.5</v>
@@ -21935,7 +21938,7 @@
         <v>105.3</v>
       </c>
       <c r="I468" s="4">
-        <v>103.9</v>
+        <v>104</v>
       </c>
       <c r="J468" s="4">
         <v>59.1</v>
@@ -21947,7 +21950,7 @@
         <v>44.4</v>
       </c>
       <c r="M468" s="4">
-        <v>1517.3</v>
+        <v>1526.3</v>
       </c>
       <c r="N468" s="4">
         <v>3290</v>
@@ -21967,7 +21970,7 @@
         <v>7</v>
       </c>
       <c r="D469" s="4">
-        <v>99.5</v>
+        <v>99.4</v>
       </c>
       <c r="E469" s="4">
         <v>104.4</v>
@@ -21994,7 +21997,7 @@
         <v>33.299999999999997</v>
       </c>
       <c r="M469" s="4">
-        <v>1471.8</v>
+        <v>1480.8</v>
       </c>
       <c r="N469" s="4">
         <v>3265</v>
@@ -22041,7 +22044,7 @@
         <v>33.299999999999997</v>
       </c>
       <c r="M470" s="4">
-        <v>1440</v>
+        <v>1449</v>
       </c>
       <c r="N470" s="4">
         <v>3245</v>
@@ -22076,7 +22079,7 @@
         <v>103.4</v>
       </c>
       <c r="I471" s="4">
-        <v>102.9</v>
+        <v>102.8</v>
       </c>
       <c r="J471" s="4">
         <v>27.3</v>
@@ -22088,7 +22091,7 @@
         <v>50</v>
       </c>
       <c r="M471" s="4">
-        <v>1417.3</v>
+        <v>1426.3</v>
       </c>
       <c r="N471" s="4">
         <v>3225</v>
@@ -22135,7 +22138,7 @@
         <v>55.6</v>
       </c>
       <c r="M472" s="4">
-        <v>1403.7</v>
+        <v>1412.7</v>
       </c>
       <c r="N472" s="4">
         <v>3250</v>
@@ -22182,7 +22185,7 @@
         <v>50</v>
       </c>
       <c r="M473" s="4">
-        <v>1385.5</v>
+        <v>1394.5</v>
       </c>
       <c r="N473" s="4">
         <v>3250</v>
@@ -22229,7 +22232,7 @@
         <v>44.4</v>
       </c>
       <c r="M474" s="4">
-        <v>1362.8</v>
+        <v>1371.8</v>
       </c>
       <c r="N474" s="4">
         <v>3260</v>
@@ -22252,7 +22255,7 @@
         <v>96</v>
       </c>
       <c r="E475" s="4">
-        <v>101.3</v>
+        <v>101.4</v>
       </c>
       <c r="F475" s="4">
         <v>104.1</v>
@@ -22276,7 +22279,7 @@
         <v>66.7</v>
       </c>
       <c r="M475" s="4">
-        <v>1321.9</v>
+        <v>1330.9</v>
       </c>
       <c r="N475" s="4">
         <v>3230</v>
@@ -22299,7 +22302,7 @@
         <v>96.5</v>
       </c>
       <c r="E476" s="4">
-        <v>102.5</v>
+        <v>102.6</v>
       </c>
       <c r="F476" s="4">
         <v>104.2</v>
@@ -22323,7 +22326,7 @@
         <v>66.7</v>
       </c>
       <c r="M476" s="4">
-        <v>1290.0999999999999</v>
+        <v>1299.0999999999999</v>
       </c>
       <c r="N476" s="4">
         <v>3205</v>
@@ -22343,10 +22346,10 @@
         <v>3</v>
       </c>
       <c r="D477" s="4">
-        <v>96</v>
+        <v>95.9</v>
       </c>
       <c r="E477" s="4">
-        <v>102.6</v>
+        <v>102.7</v>
       </c>
       <c r="F477" s="4">
         <v>104.1</v>
@@ -22370,7 +22373,7 @@
         <v>100</v>
       </c>
       <c r="M477" s="4">
-        <v>1281</v>
+        <v>1290</v>
       </c>
       <c r="N477" s="4">
         <v>3185</v>
@@ -22417,7 +22420,7 @@
         <v>61.1</v>
       </c>
       <c r="M478" s="4">
-        <v>1294.5999999999999</v>
+        <v>1303.5999999999999</v>
       </c>
       <c r="N478" s="4">
         <v>3195</v>
@@ -22446,7 +22449,7 @@
         <v>104.4</v>
       </c>
       <c r="G479" s="4">
-        <v>96.2</v>
+        <v>96.1</v>
       </c>
       <c r="H479" s="4">
         <v>102</v>
@@ -22464,7 +22467,7 @@
         <v>77.8</v>
       </c>
       <c r="M479" s="4">
-        <v>1271.9000000000001</v>
+        <v>1280.9000000000001</v>
       </c>
       <c r="N479" s="4">
         <v>3195</v>
@@ -22490,13 +22493,13 @@
         <v>100.1</v>
       </c>
       <c r="F480" s="4">
-        <v>104.4</v>
+        <v>104.5</v>
       </c>
       <c r="G480" s="4">
         <v>94.8</v>
       </c>
       <c r="H480" s="4">
-        <v>100.7</v>
+        <v>100.6</v>
       </c>
       <c r="I480" s="4">
         <v>104.7</v>
@@ -22511,7 +22514,7 @@
         <v>66.7</v>
       </c>
       <c r="M480" s="4">
-        <v>1240.0999999999999</v>
+        <v>1249.0999999999999</v>
       </c>
       <c r="N480" s="4">
         <v>3165</v>
@@ -22558,7 +22561,7 @@
         <v>61.1</v>
       </c>
       <c r="M481" s="4">
-        <v>1190.0999999999999</v>
+        <v>1199.0999999999999</v>
       </c>
       <c r="N481" s="4">
         <v>3145</v>
@@ -22605,7 +22608,7 @@
         <v>38.9</v>
       </c>
       <c r="M482" s="4">
-        <v>1158.3</v>
+        <v>1167.3</v>
       </c>
       <c r="N482" s="4">
         <v>3125</v>
@@ -22628,7 +22631,7 @@
         <v>91.9</v>
       </c>
       <c r="E483" s="4">
-        <v>100.5</v>
+        <v>100.6</v>
       </c>
       <c r="F483" s="4">
         <v>104.2</v>
@@ -22637,7 +22640,7 @@
         <v>92.8</v>
       </c>
       <c r="H483" s="4">
-        <v>101.3</v>
+        <v>101.4</v>
       </c>
       <c r="I483" s="4">
         <v>104.6</v>
@@ -22652,7 +22655,7 @@
         <v>33.299999999999997</v>
       </c>
       <c r="M483" s="4">
-        <v>1135.5999999999999</v>
+        <v>1144.5999999999999</v>
       </c>
       <c r="N483" s="4">
         <v>3115</v>
@@ -22672,13 +22675,13 @@
         <v>10</v>
       </c>
       <c r="D484" s="4">
-        <v>91.4</v>
+        <v>91.5</v>
       </c>
       <c r="E484" s="4">
-        <v>96.7</v>
+        <v>96.8</v>
       </c>
       <c r="F484" s="4">
-        <v>102.8</v>
+        <v>102.7</v>
       </c>
       <c r="G484" s="4">
         <v>92.3</v>
@@ -22699,7 +22702,7 @@
         <v>22.2</v>
       </c>
       <c r="M484" s="4">
-        <v>1103.8</v>
+        <v>1112.8</v>
       </c>
       <c r="N484" s="4">
         <v>3065</v>
@@ -22722,7 +22725,7 @@
         <v>90.6</v>
       </c>
       <c r="E485" s="4">
-        <v>95.9</v>
+        <v>96</v>
       </c>
       <c r="F485" s="4">
         <v>102.6</v>
@@ -22734,7 +22737,7 @@
         <v>96</v>
       </c>
       <c r="I485" s="4">
-        <v>102.9</v>
+        <v>102.8</v>
       </c>
       <c r="J485" s="4">
         <v>36.4</v>
@@ -22746,7 +22749,7 @@
         <v>16.7</v>
       </c>
       <c r="M485" s="4">
-        <v>1090.2</v>
+        <v>1099.2</v>
       </c>
       <c r="N485" s="4">
         <v>3015</v>
@@ -22769,7 +22772,7 @@
         <v>91.3</v>
       </c>
       <c r="E486" s="4">
-        <v>95.6</v>
+        <v>95.7</v>
       </c>
       <c r="F486" s="4">
         <v>102.5</v>
@@ -22793,7 +22796,7 @@
         <v>50</v>
       </c>
       <c r="M486" s="4">
-        <v>1085.7</v>
+        <v>1094.7</v>
       </c>
       <c r="N486" s="4">
         <v>2985</v>
@@ -22840,7 +22843,7 @@
         <v>72.2</v>
       </c>
       <c r="M487" s="4">
-        <v>1072.0999999999999</v>
+        <v>1081.0999999999999</v>
       </c>
       <c r="N487" s="4">
         <v>2985</v>
@@ -22887,7 +22890,7 @@
         <v>44.4</v>
       </c>
       <c r="M488" s="4">
-        <v>1067.5999999999999</v>
+        <v>1076.5999999999999</v>
       </c>
       <c r="N488" s="4">
         <v>2985</v>
@@ -22919,7 +22922,7 @@
         <v>84.8</v>
       </c>
       <c r="H489" s="4">
-        <v>91.3</v>
+        <v>91.2</v>
       </c>
       <c r="I489" s="4">
         <v>101</v>
@@ -22934,7 +22937,7 @@
         <v>11.1</v>
       </c>
       <c r="M489" s="4">
-        <v>1035.8</v>
+        <v>1044.8</v>
       </c>
       <c r="N489" s="4">
         <v>2945</v>
@@ -22963,7 +22966,7 @@
         <v>97.6</v>
       </c>
       <c r="G490" s="4">
-        <v>75.3</v>
+        <v>75.2</v>
       </c>
       <c r="H490" s="4">
         <v>80.7</v>
@@ -22981,7 +22984,7 @@
         <v>11.1</v>
       </c>
       <c r="M490" s="4">
-        <v>1004</v>
+        <v>1013</v>
       </c>
       <c r="N490" s="4">
         <v>2895</v>
@@ -23013,7 +23016,7 @@
         <v>73.2</v>
       </c>
       <c r="H491" s="4">
-        <v>72.7</v>
+        <v>72.599999999999994</v>
       </c>
       <c r="I491" s="4">
         <v>93.2</v>
@@ -23028,7 +23031,7 @@
         <v>0</v>
       </c>
       <c r="M491" s="4">
-        <v>963.1</v>
+        <v>972.1</v>
       </c>
       <c r="N491" s="4">
         <v>2845</v>
@@ -23048,22 +23051,22 @@
         <v>6</v>
       </c>
       <c r="D492" s="4">
-        <v>83</v>
+        <v>82.9</v>
       </c>
       <c r="E492" s="4">
-        <v>77.7</v>
+        <v>77.599999999999994</v>
       </c>
       <c r="F492" s="4">
-        <v>93</v>
+        <v>93.1</v>
       </c>
       <c r="G492" s="4">
-        <v>79.099999999999994</v>
+        <v>79</v>
       </c>
       <c r="H492" s="4">
-        <v>74</v>
+        <v>73.8</v>
       </c>
       <c r="I492" s="4">
-        <v>95.5</v>
+        <v>95.6</v>
       </c>
       <c r="J492" s="4">
         <v>18.2</v>
@@ -23075,7 +23078,7 @@
         <v>22.2</v>
       </c>
       <c r="M492" s="4">
-        <v>931.3</v>
+        <v>940.3</v>
       </c>
       <c r="N492" s="4">
         <v>2805</v>
@@ -23104,10 +23107,10 @@
         <v>92.4</v>
       </c>
       <c r="G493" s="4">
-        <v>83</v>
+        <v>82.9</v>
       </c>
       <c r="H493" s="4">
-        <v>78.400000000000006</v>
+        <v>78.3</v>
       </c>
       <c r="I493" s="4">
         <v>95</v>
@@ -23122,7 +23125,7 @@
         <v>44.4</v>
       </c>
       <c r="M493" s="4">
-        <v>944.9</v>
+        <v>953.9</v>
       </c>
       <c r="N493" s="4">
         <v>2835</v>
@@ -23142,7 +23145,7 @@
         <v>8</v>
       </c>
       <c r="D494" s="4">
-        <v>88.8</v>
+        <v>88.9</v>
       </c>
       <c r="E494" s="4">
         <v>82.1</v>
@@ -23154,7 +23157,7 @@
         <v>85.4</v>
       </c>
       <c r="H494" s="4">
-        <v>80.400000000000006</v>
+        <v>80.5</v>
       </c>
       <c r="I494" s="4">
         <v>93.7</v>
@@ -23169,7 +23172,7 @@
         <v>61.1</v>
       </c>
       <c r="M494" s="4">
-        <v>994.9</v>
+        <v>1003.9</v>
       </c>
       <c r="N494" s="4">
         <v>2875</v>
@@ -23189,7 +23192,7 @@
         <v>9</v>
       </c>
       <c r="D495" s="4">
-        <v>92.5</v>
+        <v>92.6</v>
       </c>
       <c r="E495" s="4">
         <v>84.7</v>
@@ -23201,7 +23204,7 @@
         <v>89.1</v>
       </c>
       <c r="H495" s="4">
-        <v>83.1</v>
+        <v>83.2</v>
       </c>
       <c r="I495" s="4">
         <v>93.6</v>
@@ -23216,7 +23219,7 @@
         <v>38.9</v>
       </c>
       <c r="M495" s="4">
-        <v>1044.9000000000001</v>
+        <v>1053.9000000000001</v>
       </c>
       <c r="N495" s="4">
         <v>2895</v>
@@ -23248,10 +23251,10 @@
         <v>91.4</v>
       </c>
       <c r="H496" s="4">
-        <v>87.5</v>
+        <v>87.6</v>
       </c>
       <c r="I496" s="4">
-        <v>93.5</v>
+        <v>93.4</v>
       </c>
       <c r="J496" s="4">
         <v>100</v>
@@ -23263,7 +23266,7 @@
         <v>33.299999999999997</v>
       </c>
       <c r="M496" s="4">
-        <v>1094.9000000000001</v>
+        <v>1103.9000000000001</v>
       </c>
       <c r="N496" s="4">
         <v>2935</v>
@@ -23283,7 +23286,7 @@
         <v>11</v>
       </c>
       <c r="D497" s="4">
-        <v>96.7</v>
+        <v>96.8</v>
       </c>
       <c r="E497" s="4">
         <v>88.6</v>
@@ -23298,7 +23301,7 @@
         <v>88</v>
       </c>
       <c r="I497" s="4">
-        <v>93.1</v>
+        <v>93</v>
       </c>
       <c r="J497" s="4">
         <v>100</v>
@@ -23310,7 +23313,7 @@
         <v>38.9</v>
       </c>
       <c r="M497" s="4">
-        <v>1144.9000000000001</v>
+        <v>1153.9000000000001</v>
       </c>
       <c r="N497" s="4">
         <v>2980</v>
@@ -23357,7 +23360,7 @@
         <v>27.8</v>
       </c>
       <c r="M498" s="4">
-        <v>1176.7</v>
+        <v>1185.7</v>
       </c>
       <c r="N498" s="4">
         <v>3030</v>
@@ -23377,7 +23380,7 @@
         <v>1</v>
       </c>
       <c r="D499" s="4">
-        <v>97.9</v>
+        <v>98</v>
       </c>
       <c r="E499" s="4">
         <v>91.4</v>
@@ -23404,7 +23407,7 @@
         <v>38.9</v>
       </c>
       <c r="M499" s="4">
-        <v>1199.4000000000001</v>
+        <v>1208.4000000000001</v>
       </c>
       <c r="N499" s="4">
         <v>3050</v>
@@ -23427,7 +23430,7 @@
         <v>98.9</v>
       </c>
       <c r="E500" s="4">
-        <v>90.1</v>
+        <v>90</v>
       </c>
       <c r="F500" s="4">
         <v>91</v>
@@ -23451,7 +23454,7 @@
         <v>55.6</v>
       </c>
       <c r="M500" s="4">
-        <v>1222.0999999999999</v>
+        <v>1231.0999999999999</v>
       </c>
       <c r="N500" s="4">
         <v>3060</v>
@@ -23474,7 +23477,7 @@
         <v>102.2</v>
       </c>
       <c r="E501" s="4">
-        <v>93.1</v>
+        <v>93</v>
       </c>
       <c r="F501" s="4">
         <v>93.8</v>
@@ -23498,7 +23501,7 @@
         <v>100</v>
       </c>
       <c r="M501" s="4">
-        <v>1253.9000000000001</v>
+        <v>1262.9000000000001</v>
       </c>
       <c r="N501" s="4">
         <v>3100</v>
@@ -23521,16 +23524,16 @@
         <v>103.5</v>
       </c>
       <c r="E502" s="4">
-        <v>95.1</v>
+        <v>95</v>
       </c>
       <c r="F502" s="4">
-        <v>94</v>
+        <v>94.1</v>
       </c>
       <c r="G502" s="4">
         <v>101.3</v>
       </c>
       <c r="H502" s="4">
-        <v>95.2</v>
+        <v>95.1</v>
       </c>
       <c r="I502" s="4">
         <v>95.6</v>
@@ -23539,16 +23542,16 @@
         <v>81.8</v>
       </c>
       <c r="K502" s="4">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="L502" s="4">
         <v>83.3</v>
       </c>
       <c r="M502" s="4">
-        <v>1285.7</v>
+        <v>1294.7</v>
       </c>
       <c r="N502" s="4">
-        <v>3130</v>
+        <v>3120</v>
       </c>
       <c r="O502" s="4">
         <v>2606.9</v>
@@ -23565,10 +23568,10 @@
         <v>5</v>
       </c>
       <c r="D503" s="4">
-        <v>102.6</v>
+        <v>102.5</v>
       </c>
       <c r="E503" s="4">
-        <v>92.5</v>
+        <v>92.4</v>
       </c>
       <c r="F503" s="4">
         <v>93</v>
@@ -23577,7 +23580,7 @@
         <v>100</v>
       </c>
       <c r="H503" s="4">
-        <v>92.3</v>
+        <v>92.2</v>
       </c>
       <c r="I503" s="4">
         <v>94.9</v>
@@ -23586,16 +23589,16 @@
         <v>81.8</v>
       </c>
       <c r="K503" s="4">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="L503" s="4">
         <v>44.4</v>
       </c>
       <c r="M503" s="4">
-        <v>1317.5</v>
+        <v>1326.5</v>
       </c>
       <c r="N503" s="4">
-        <v>3135</v>
+        <v>3115</v>
       </c>
       <c r="O503" s="4">
         <v>2601.3000000000002</v>
@@ -23612,10 +23615,10 @@
         <v>6</v>
       </c>
       <c r="D504" s="4">
-        <v>104.2</v>
+        <v>104.1</v>
       </c>
       <c r="E504" s="4">
-        <v>94.6</v>
+        <v>94.4</v>
       </c>
       <c r="F504" s="4">
         <v>94.2</v>
@@ -23624,7 +23627,7 @@
         <v>100.8</v>
       </c>
       <c r="H504" s="4">
-        <v>94.4</v>
+        <v>94.2</v>
       </c>
       <c r="I504" s="4">
         <v>96.4</v>
@@ -23633,16 +23636,16 @@
         <v>81.8</v>
       </c>
       <c r="K504" s="4">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="L504" s="4">
         <v>55.6</v>
       </c>
       <c r="M504" s="4">
-        <v>1349.3</v>
+        <v>1358.3</v>
       </c>
       <c r="N504" s="4">
-        <v>3155</v>
+        <v>3125</v>
       </c>
       <c r="O504" s="4">
         <v>2606.9</v>
@@ -23659,49 +23662,190 @@
         <v>7</v>
       </c>
       <c r="D505" s="4">
-        <v>104.1</v>
+        <v>103.8</v>
       </c>
       <c r="E505" s="4">
-        <v>94.4</v>
+        <v>94</v>
       </c>
       <c r="F505" s="4">
-        <v>95.3</v>
+        <v>94.8</v>
       </c>
       <c r="G505" s="4">
-        <v>100.8</v>
+        <v>100.7</v>
       </c>
       <c r="H505" s="4">
-        <v>94.2</v>
+        <v>93.9</v>
       </c>
       <c r="I505" s="4">
-        <v>96.8</v>
+        <v>96.6</v>
       </c>
       <c r="J505" s="4">
-        <v>50</v>
+        <v>54.5</v>
       </c>
       <c r="K505" s="4">
+        <v>30</v>
+      </c>
+      <c r="L505" s="4">
+        <v>66.7</v>
+      </c>
+      <c r="M505" s="4">
+        <v>1362.8</v>
+      </c>
+      <c r="N505" s="4">
+        <v>3105</v>
+      </c>
+      <c r="O505" s="4">
+        <v>2623.6</v>
+      </c>
+    </row>
+    <row r="506" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A506" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B506" s="2">
+        <v>2021</v>
+      </c>
+      <c r="C506" s="2">
+        <v>8</v>
+      </c>
+      <c r="D506" s="4">
+        <v>101.2</v>
+      </c>
+      <c r="E506" s="4">
+        <v>91</v>
+      </c>
+      <c r="F506" s="4">
+        <v>93.7</v>
+      </c>
+      <c r="G506" s="4">
+        <v>98</v>
+      </c>
+      <c r="H506" s="4">
+        <v>90.6</v>
+      </c>
+      <c r="I506" s="4">
+        <v>95.4</v>
+      </c>
+      <c r="J506" s="4">
+        <v>36.4</v>
+      </c>
+      <c r="K506" s="4">
+        <v>45</v>
+      </c>
+      <c r="L506" s="4">
+        <v>61.1</v>
+      </c>
+      <c r="M506" s="4">
+        <v>1349.2</v>
+      </c>
+      <c r="N506" s="4">
+        <v>3100</v>
+      </c>
+      <c r="O506" s="4">
+        <v>2634.7</v>
+      </c>
+    </row>
+    <row r="507" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A507" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B507" s="2">
+        <v>2021</v>
+      </c>
+      <c r="C507" s="2">
+        <v>9</v>
+      </c>
+      <c r="D507" s="4">
+        <v>100.2</v>
+      </c>
+      <c r="E507" s="4">
+        <v>88.7</v>
+      </c>
+      <c r="F507" s="4">
+        <v>93.4</v>
+      </c>
+      <c r="G507" s="4">
+        <v>96.2</v>
+      </c>
+      <c r="H507" s="4">
+        <v>86.5</v>
+      </c>
+      <c r="I507" s="4">
+        <v>95</v>
+      </c>
+      <c r="J507" s="4">
+        <v>54.5</v>
+      </c>
+      <c r="K507" s="4">
+        <v>10</v>
+      </c>
+      <c r="L507" s="4">
         <v>33.299999999999997</v>
       </c>
-      <c r="L505" s="4">
-        <v>75</v>
-      </c>
-      <c r="M505" s="4">
-        <v>1349.3</v>
-      </c>
-      <c r="N505" s="4">
-        <v>3138.3</v>
-      </c>
-      <c r="O505" s="4">
-        <v>2631.9</v>
-      </c>
-    </row>
-    <row r="514" spans="4:9" x14ac:dyDescent="0.15">
-      <c r="D514" s="3"/>
-      <c r="E514" s="3"/>
-      <c r="F514" s="3"/>
-      <c r="G514" s="3"/>
-      <c r="H514" s="3"/>
-      <c r="I514" s="3"/>
+      <c r="M507" s="4">
+        <v>1353.7</v>
+      </c>
+      <c r="N507" s="4">
+        <v>3060</v>
+      </c>
+      <c r="O507" s="4">
+        <v>2618</v>
+      </c>
+    </row>
+    <row r="508" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A508" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B508" s="2">
+        <v>2021</v>
+      </c>
+      <c r="C508" s="2">
+        <v>10</v>
+      </c>
+      <c r="D508" s="4">
+        <v>101.5</v>
+      </c>
+      <c r="E508" s="4">
+        <v>89.8</v>
+      </c>
+      <c r="F508" s="4">
+        <v>93.1</v>
+      </c>
+      <c r="G508" s="4">
+        <v>97.5</v>
+      </c>
+      <c r="H508" s="4">
+        <v>88.5</v>
+      </c>
+      <c r="I508" s="4">
+        <v>94.7</v>
+      </c>
+      <c r="J508" s="4">
+        <v>40</v>
+      </c>
+      <c r="K508" s="4">
+        <v>5.6</v>
+      </c>
+      <c r="L508" s="4">
+        <v>25</v>
+      </c>
+      <c r="M508" s="4">
+        <v>1343.7</v>
+      </c>
+      <c r="N508" s="4">
+        <v>3015.6</v>
+      </c>
+      <c r="O508" s="4">
+        <v>2593</v>
+      </c>
+    </row>
+    <row r="517" spans="4:9" x14ac:dyDescent="0.15">
+      <c r="D517" s="3"/>
+      <c r="E517" s="3"/>
+      <c r="F517" s="3"/>
+      <c r="G517" s="3"/>
+      <c r="H517" s="3"/>
+      <c r="I517" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
